--- a/ThietKe/UserInfo.xlsx
+++ b/ThietKe/UserInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9eef513b679c526/Máy tính/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\ThietKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{CC100245-313E-498B-A978-FE83E0773F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2463E2F4-1CCF-4589-822C-4DD40A9AB06D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0E490-F6D4-4423-8704-22E58FB5AC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2BB513B-E136-45D5-80DB-E7F611734C7E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -244,12 +244,6 @@
     <t>Có thể</t>
   </si>
   <si>
-    <t>Thêm kho</t>
-  </si>
-  <si>
-    <t>Chi tiết</t>
-  </si>
-  <si>
     <t>(2) Xử lý Thêm</t>
   </si>
   <si>
@@ -257,10 +251,6 @@
   </si>
   <si>
     <t>2. Xử lý check</t>
-  </si>
-  <si>
-    <t>a. Check hạng mục</t>
-    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>Nội dung check</t>
@@ -274,19 +264,7 @@
     <t>Trùng số điện thoại</t>
   </si>
   <si>
-    <t>Vui lòng kiểm tra lại số điện thoại</t>
-  </si>
-  <si>
     <t>Trùng email</t>
-  </si>
-  <si>
-    <t>Vui lòng kiểm tra lại email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trùng số CCCD/CMND, đủ 12 số </t>
-  </si>
-  <si>
-    <t>Vui lòng kiểm tra lại CCCD/CMND</t>
   </si>
   <si>
     <t>3. Xử lý thêm kho</t>
@@ -318,9 +296,6 @@
     <t>user.ten</t>
   </si>
   <si>
-    <t>Kho</t>
-  </si>
-  <si>
     <t>user.diachi</t>
   </si>
   <si>
@@ -354,18 +329,12 @@
     <t>Thay đổi thông tin User thành công</t>
   </si>
   <si>
-    <t>thay đổi thông tin người đùng thành công</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
     <t>Kiểm tra lại thông tin người dùng</t>
   </si>
   <si>
-    <t>vui lòng kiểm tra lại thông tin người dùng</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -376,13 +345,58 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Err_message_inf_01</t>
+  </si>
+  <si>
+    <t>Err_message_inf_02</t>
+  </si>
+  <si>
+    <t>Err_message_inf_03</t>
+  </si>
+  <si>
+    <t>Err_message_inf_04</t>
+  </si>
+  <si>
+    <t>Err_message_inf_05</t>
+  </si>
+  <si>
+    <t>a. Check hạng mục</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User.Username</t>
+  </si>
+  <si>
+    <t>User.Password</t>
+  </si>
+  <si>
+    <t>user.Chức vụ</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>********</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kho</t>
+  </si>
+  <si>
+    <t>Trùng số CCCD/CMND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,13 +454,6 @@
       <i/>
       <sz val="9"/>
       <color rgb="FF660E7A"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -1065,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1345,7 +1352,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,18 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1494,6 +1488,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1580,105 +1655,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1767,23 +1743,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>185529</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28126</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>106017</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>147514</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>71717</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4CD605-5681-4B46-9765-AC9302706D1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C43439B-E1DE-0278-0B94-8150D404DD42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,8 +1775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="551289" y="1041586"/>
-          <a:ext cx="7235688" cy="5148588"/>
+          <a:off x="851646" y="1030941"/>
+          <a:ext cx="6571130" cy="5339043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,10 +1786,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2115,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0E519-75AE-4AC6-9145-7254E8BEAEB1}">
   <dimension ref="A1:BF172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="BH17" sqref="BH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -2129,187 +2101,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="161" t="s">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="161" t="s">
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="162" t="s">
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="168" t="s">
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="153"/>
-      <c r="AJ1" s="153"/>
-      <c r="AK1" s="153"/>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="183" t="s">
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="174"/>
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="180" t="s">
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="182"/>
-      <c r="AR1" s="183" t="s">
+      <c r="AP1" s="158"/>
+      <c r="AQ1" s="159"/>
+      <c r="AR1" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="184"/>
-      <c r="AT1" s="185">
+      <c r="AS1" s="161"/>
+      <c r="AT1" s="162">
         <v>44936</v>
       </c>
-      <c r="AU1" s="186"/>
-      <c r="AV1" s="186"/>
-      <c r="AW1" s="187"/>
+      <c r="AU1" s="163"/>
+      <c r="AV1" s="163"/>
+      <c r="AW1" s="164"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="156"/>
-      <c r="AH2" s="156"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="156"/>
-      <c r="AK2" s="156"/>
-      <c r="AL2" s="157"/>
-      <c r="AM2" s="188" t="s">
+      <c r="A2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="190"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="177"/>
+      <c r="AK2" s="177"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="189"/>
-      <c r="AO2" s="190"/>
-      <c r="AP2" s="191"/>
-      <c r="AQ2" s="192"/>
-      <c r="AR2" s="188" t="s">
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="189"/>
-      <c r="AT2" s="193"/>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="195"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="170"/>
+      <c r="AU2" s="171"/>
+      <c r="AV2" s="171"/>
+      <c r="AW2" s="172"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="170" t="s">
+      <c r="A3" s="179"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="173" t="s">
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="176" t="s">
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="177"/>
-      <c r="AJ3" s="177"/>
-      <c r="AK3" s="177"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="173" t="s">
+      <c r="AI3" s="198"/>
+      <c r="AJ3" s="198"/>
+      <c r="AK3" s="198"/>
+      <c r="AL3" s="199"/>
+      <c r="AM3" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="174"/>
-      <c r="AO3" s="174"/>
-      <c r="AP3" s="174"/>
-      <c r="AQ3" s="174"/>
-      <c r="AR3" s="174"/>
-      <c r="AS3" s="174"/>
-      <c r="AT3" s="174"/>
-      <c r="AU3" s="174"/>
-      <c r="AV3" s="174"/>
-      <c r="AW3" s="179"/>
+      <c r="AN3" s="195"/>
+      <c r="AO3" s="195"/>
+      <c r="AP3" s="195"/>
+      <c r="AQ3" s="195"/>
+      <c r="AR3" s="195"/>
+      <c r="AS3" s="195"/>
+      <c r="AT3" s="195"/>
+      <c r="AU3" s="195"/>
+      <c r="AV3" s="195"/>
+      <c r="AW3" s="200"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -3080,187 +3052,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="152" t="s">
+      <c r="A41" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="161" t="s">
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="161" t="s">
+      <c r="K41" s="174"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="175"/>
+      <c r="P41" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="153"/>
-      <c r="R41" s="153"/>
-      <c r="S41" s="153"/>
-      <c r="T41" s="153"/>
-      <c r="U41" s="154"/>
-      <c r="V41" s="162" t="s">
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
+      <c r="S41" s="174"/>
+      <c r="T41" s="174"/>
+      <c r="U41" s="175"/>
+      <c r="V41" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="163"/>
-      <c r="X41" s="163"/>
-      <c r="Y41" s="163"/>
-      <c r="Z41" s="164"/>
-      <c r="AA41" s="168" t="s">
+      <c r="W41" s="184"/>
+      <c r="X41" s="184"/>
+      <c r="Y41" s="184"/>
+      <c r="Z41" s="185"/>
+      <c r="AA41" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="153"/>
-      <c r="AC41" s="153"/>
-      <c r="AD41" s="153"/>
-      <c r="AE41" s="153"/>
-      <c r="AF41" s="153"/>
-      <c r="AG41" s="153"/>
-      <c r="AH41" s="153"/>
-      <c r="AI41" s="153"/>
-      <c r="AJ41" s="153"/>
-      <c r="AK41" s="153"/>
-      <c r="AL41" s="154"/>
-      <c r="AM41" s="183" t="s">
+      <c r="AB41" s="174"/>
+      <c r="AC41" s="174"/>
+      <c r="AD41" s="174"/>
+      <c r="AE41" s="174"/>
+      <c r="AF41" s="174"/>
+      <c r="AG41" s="174"/>
+      <c r="AH41" s="174"/>
+      <c r="AI41" s="174"/>
+      <c r="AJ41" s="174"/>
+      <c r="AK41" s="174"/>
+      <c r="AL41" s="175"/>
+      <c r="AM41" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="184"/>
-      <c r="AO41" s="180" t="s">
+      <c r="AN41" s="161"/>
+      <c r="AO41" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="181"/>
-      <c r="AQ41" s="182"/>
-      <c r="AR41" s="183" t="s">
+      <c r="AP41" s="158"/>
+      <c r="AQ41" s="159"/>
+      <c r="AR41" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="184"/>
-      <c r="AT41" s="185">
+      <c r="AS41" s="161"/>
+      <c r="AT41" s="162">
         <v>44936</v>
       </c>
-      <c r="AU41" s="186"/>
-      <c r="AV41" s="186"/>
-      <c r="AW41" s="187"/>
+      <c r="AU41" s="163"/>
+      <c r="AV41" s="163"/>
+      <c r="AW41" s="164"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="155"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="157"/>
-      <c r="P42" s="155"/>
-      <c r="Q42" s="156"/>
-      <c r="R42" s="156"/>
-      <c r="S42" s="156"/>
-      <c r="T42" s="156"/>
-      <c r="U42" s="157"/>
-      <c r="V42" s="165"/>
-      <c r="W42" s="166"/>
-      <c r="X42" s="166"/>
-      <c r="Y42" s="166"/>
-      <c r="Z42" s="167"/>
-      <c r="AA42" s="169"/>
-      <c r="AB42" s="156"/>
-      <c r="AC42" s="156"/>
-      <c r="AD42" s="156"/>
-      <c r="AE42" s="156"/>
-      <c r="AF42" s="156"/>
-      <c r="AG42" s="156"/>
-      <c r="AH42" s="156"/>
-      <c r="AI42" s="156"/>
-      <c r="AJ42" s="156"/>
-      <c r="AK42" s="156"/>
-      <c r="AL42" s="157"/>
-      <c r="AM42" s="188" t="s">
+      <c r="A42" s="176"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="178"/>
+      <c r="P42" s="176"/>
+      <c r="Q42" s="177"/>
+      <c r="R42" s="177"/>
+      <c r="S42" s="177"/>
+      <c r="T42" s="177"/>
+      <c r="U42" s="178"/>
+      <c r="V42" s="186"/>
+      <c r="W42" s="187"/>
+      <c r="X42" s="187"/>
+      <c r="Y42" s="187"/>
+      <c r="Z42" s="188"/>
+      <c r="AA42" s="190"/>
+      <c r="AB42" s="177"/>
+      <c r="AC42" s="177"/>
+      <c r="AD42" s="177"/>
+      <c r="AE42" s="177"/>
+      <c r="AF42" s="177"/>
+      <c r="AG42" s="177"/>
+      <c r="AH42" s="177"/>
+      <c r="AI42" s="177"/>
+      <c r="AJ42" s="177"/>
+      <c r="AK42" s="177"/>
+      <c r="AL42" s="178"/>
+      <c r="AM42" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="189"/>
-      <c r="AO42" s="190"/>
-      <c r="AP42" s="191"/>
-      <c r="AQ42" s="192"/>
-      <c r="AR42" s="188" t="s">
+      <c r="AN42" s="166"/>
+      <c r="AO42" s="167"/>
+      <c r="AP42" s="168"/>
+      <c r="AQ42" s="169"/>
+      <c r="AR42" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="189"/>
-      <c r="AT42" s="193"/>
-      <c r="AU42" s="194"/>
-      <c r="AV42" s="194"/>
-      <c r="AW42" s="195"/>
+      <c r="AS42" s="166"/>
+      <c r="AT42" s="170"/>
+      <c r="AU42" s="171"/>
+      <c r="AV42" s="171"/>
+      <c r="AW42" s="172"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="158"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="159"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="159"/>
-      <c r="F43" s="159"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="159"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="159"/>
-      <c r="M43" s="159"/>
-      <c r="N43" s="159"/>
-      <c r="O43" s="160"/>
-      <c r="P43" s="158"/>
-      <c r="Q43" s="159"/>
-      <c r="R43" s="159"/>
-      <c r="S43" s="159"/>
-      <c r="T43" s="159"/>
-      <c r="U43" s="160"/>
-      <c r="V43" s="170" t="s">
+      <c r="A43" s="179"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="180"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="179"/>
+      <c r="K43" s="180"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="180"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="181"/>
+      <c r="P43" s="179"/>
+      <c r="Q43" s="180"/>
+      <c r="R43" s="180"/>
+      <c r="S43" s="180"/>
+      <c r="T43" s="180"/>
+      <c r="U43" s="181"/>
+      <c r="V43" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="171"/>
-      <c r="X43" s="171"/>
-      <c r="Y43" s="171"/>
-      <c r="Z43" s="172"/>
-      <c r="AA43" s="173" t="s">
+      <c r="W43" s="192"/>
+      <c r="X43" s="192"/>
+      <c r="Y43" s="192"/>
+      <c r="Z43" s="193"/>
+      <c r="AA43" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="174"/>
-      <c r="AC43" s="174"/>
-      <c r="AD43" s="174"/>
-      <c r="AE43" s="174"/>
-      <c r="AF43" s="174"/>
-      <c r="AG43" s="175"/>
-      <c r="AH43" s="176" t="s">
+      <c r="AB43" s="195"/>
+      <c r="AC43" s="195"/>
+      <c r="AD43" s="195"/>
+      <c r="AE43" s="195"/>
+      <c r="AF43" s="195"/>
+      <c r="AG43" s="196"/>
+      <c r="AH43" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="177"/>
-      <c r="AJ43" s="177"/>
-      <c r="AK43" s="177"/>
-      <c r="AL43" s="178"/>
-      <c r="AM43" s="173" t="s">
+      <c r="AI43" s="198"/>
+      <c r="AJ43" s="198"/>
+      <c r="AK43" s="198"/>
+      <c r="AL43" s="199"/>
+      <c r="AM43" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="174"/>
-      <c r="AO43" s="174"/>
-      <c r="AP43" s="174"/>
-      <c r="AQ43" s="174"/>
-      <c r="AR43" s="174"/>
-      <c r="AS43" s="174"/>
-      <c r="AT43" s="174"/>
-      <c r="AU43" s="174"/>
-      <c r="AV43" s="174"/>
-      <c r="AW43" s="179"/>
+      <c r="AN43" s="195"/>
+      <c r="AO43" s="195"/>
+      <c r="AP43" s="195"/>
+      <c r="AQ43" s="195"/>
+      <c r="AR43" s="195"/>
+      <c r="AS43" s="195"/>
+      <c r="AT43" s="195"/>
+      <c r="AU43" s="195"/>
+      <c r="AV43" s="195"/>
+      <c r="AW43" s="200"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -3770,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
@@ -3792,7 +3764,7 @@
       </c>
       <c r="S55" s="57"/>
       <c r="T55" s="58" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="U55" s="59"/>
       <c r="V55" s="51" t="s">
@@ -3834,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
@@ -3856,7 +3828,7 @@
       </c>
       <c r="S56" s="45"/>
       <c r="T56" s="46" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="U56" s="47"/>
       <c r="V56" s="39" t="s">
@@ -3898,7 +3870,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
@@ -3920,7 +3892,7 @@
       </c>
       <c r="S57" s="57"/>
       <c r="T57" s="58" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="U57" s="59"/>
       <c r="V57" s="51" t="s">
@@ -5042,187 +5014,187 @@
       <c r="AW78" s="7"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A79" s="152" t="s">
+      <c r="A79" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="153"/>
-      <c r="C79" s="153"/>
-      <c r="D79" s="153"/>
-      <c r="E79" s="153"/>
-      <c r="F79" s="153"/>
-      <c r="G79" s="153"/>
-      <c r="H79" s="153"/>
-      <c r="I79" s="154"/>
-      <c r="J79" s="161" t="s">
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
+      <c r="D79" s="174"/>
+      <c r="E79" s="174"/>
+      <c r="F79" s="174"/>
+      <c r="G79" s="174"/>
+      <c r="H79" s="174"/>
+      <c r="I79" s="175"/>
+      <c r="J79" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="153"/>
-      <c r="L79" s="153"/>
-      <c r="M79" s="153"/>
-      <c r="N79" s="153"/>
-      <c r="O79" s="154"/>
-      <c r="P79" s="161" t="s">
+      <c r="K79" s="174"/>
+      <c r="L79" s="174"/>
+      <c r="M79" s="174"/>
+      <c r="N79" s="174"/>
+      <c r="O79" s="175"/>
+      <c r="P79" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="153"/>
-      <c r="R79" s="153"/>
-      <c r="S79" s="153"/>
-      <c r="T79" s="153"/>
-      <c r="U79" s="154"/>
-      <c r="V79" s="162" t="s">
+      <c r="Q79" s="174"/>
+      <c r="R79" s="174"/>
+      <c r="S79" s="174"/>
+      <c r="T79" s="174"/>
+      <c r="U79" s="175"/>
+      <c r="V79" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="W79" s="163"/>
-      <c r="X79" s="163"/>
-      <c r="Y79" s="163"/>
-      <c r="Z79" s="164"/>
-      <c r="AA79" s="168" t="s">
+      <c r="W79" s="184"/>
+      <c r="X79" s="184"/>
+      <c r="Y79" s="184"/>
+      <c r="Z79" s="185"/>
+      <c r="AA79" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="AB79" s="153"/>
-      <c r="AC79" s="153"/>
-      <c r="AD79" s="153"/>
-      <c r="AE79" s="153"/>
-      <c r="AF79" s="153"/>
-      <c r="AG79" s="153"/>
-      <c r="AH79" s="153"/>
-      <c r="AI79" s="153"/>
-      <c r="AJ79" s="153"/>
-      <c r="AK79" s="153"/>
-      <c r="AL79" s="154"/>
-      <c r="AM79" s="183" t="s">
+      <c r="AB79" s="174"/>
+      <c r="AC79" s="174"/>
+      <c r="AD79" s="174"/>
+      <c r="AE79" s="174"/>
+      <c r="AF79" s="174"/>
+      <c r="AG79" s="174"/>
+      <c r="AH79" s="174"/>
+      <c r="AI79" s="174"/>
+      <c r="AJ79" s="174"/>
+      <c r="AK79" s="174"/>
+      <c r="AL79" s="175"/>
+      <c r="AM79" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="AN79" s="184"/>
-      <c r="AO79" s="180" t="s">
+      <c r="AN79" s="161"/>
+      <c r="AO79" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="AP79" s="181"/>
-      <c r="AQ79" s="182"/>
-      <c r="AR79" s="183" t="s">
+      <c r="AP79" s="158"/>
+      <c r="AQ79" s="159"/>
+      <c r="AR79" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="AS79" s="184"/>
-      <c r="AT79" s="185">
+      <c r="AS79" s="161"/>
+      <c r="AT79" s="162">
         <v>44936</v>
       </c>
-      <c r="AU79" s="186"/>
-      <c r="AV79" s="186"/>
-      <c r="AW79" s="187"/>
+      <c r="AU79" s="163"/>
+      <c r="AV79" s="163"/>
+      <c r="AW79" s="164"/>
     </row>
     <row r="80" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A80" s="155"/>
-      <c r="B80" s="156"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="156"/>
-      <c r="F80" s="156"/>
-      <c r="G80" s="156"/>
-      <c r="H80" s="156"/>
-      <c r="I80" s="157"/>
-      <c r="J80" s="155"/>
-      <c r="K80" s="156"/>
-      <c r="L80" s="156"/>
-      <c r="M80" s="156"/>
-      <c r="N80" s="156"/>
-      <c r="O80" s="157"/>
-      <c r="P80" s="155"/>
-      <c r="Q80" s="156"/>
-      <c r="R80" s="156"/>
-      <c r="S80" s="156"/>
-      <c r="T80" s="156"/>
-      <c r="U80" s="157"/>
-      <c r="V80" s="165"/>
-      <c r="W80" s="166"/>
-      <c r="X80" s="166"/>
-      <c r="Y80" s="166"/>
-      <c r="Z80" s="167"/>
-      <c r="AA80" s="169"/>
-      <c r="AB80" s="156"/>
-      <c r="AC80" s="156"/>
-      <c r="AD80" s="156"/>
-      <c r="AE80" s="156"/>
-      <c r="AF80" s="156"/>
-      <c r="AG80" s="156"/>
-      <c r="AH80" s="156"/>
-      <c r="AI80" s="156"/>
-      <c r="AJ80" s="156"/>
-      <c r="AK80" s="156"/>
-      <c r="AL80" s="157"/>
-      <c r="AM80" s="188" t="s">
+      <c r="A80" s="176"/>
+      <c r="B80" s="177"/>
+      <c r="C80" s="177"/>
+      <c r="D80" s="177"/>
+      <c r="E80" s="177"/>
+      <c r="F80" s="177"/>
+      <c r="G80" s="177"/>
+      <c r="H80" s="177"/>
+      <c r="I80" s="178"/>
+      <c r="J80" s="176"/>
+      <c r="K80" s="177"/>
+      <c r="L80" s="177"/>
+      <c r="M80" s="177"/>
+      <c r="N80" s="177"/>
+      <c r="O80" s="178"/>
+      <c r="P80" s="176"/>
+      <c r="Q80" s="177"/>
+      <c r="R80" s="177"/>
+      <c r="S80" s="177"/>
+      <c r="T80" s="177"/>
+      <c r="U80" s="178"/>
+      <c r="V80" s="186"/>
+      <c r="W80" s="187"/>
+      <c r="X80" s="187"/>
+      <c r="Y80" s="187"/>
+      <c r="Z80" s="188"/>
+      <c r="AA80" s="190"/>
+      <c r="AB80" s="177"/>
+      <c r="AC80" s="177"/>
+      <c r="AD80" s="177"/>
+      <c r="AE80" s="177"/>
+      <c r="AF80" s="177"/>
+      <c r="AG80" s="177"/>
+      <c r="AH80" s="177"/>
+      <c r="AI80" s="177"/>
+      <c r="AJ80" s="177"/>
+      <c r="AK80" s="177"/>
+      <c r="AL80" s="178"/>
+      <c r="AM80" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="AN80" s="189"/>
-      <c r="AO80" s="190"/>
-      <c r="AP80" s="191"/>
-      <c r="AQ80" s="192"/>
-      <c r="AR80" s="188" t="s">
+      <c r="AN80" s="166"/>
+      <c r="AO80" s="167"/>
+      <c r="AP80" s="168"/>
+      <c r="AQ80" s="169"/>
+      <c r="AR80" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="AS80" s="189"/>
-      <c r="AT80" s="193"/>
-      <c r="AU80" s="194"/>
-      <c r="AV80" s="194"/>
-      <c r="AW80" s="195"/>
+      <c r="AS80" s="166"/>
+      <c r="AT80" s="170"/>
+      <c r="AU80" s="171"/>
+      <c r="AV80" s="171"/>
+      <c r="AW80" s="172"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A81" s="158"/>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="159"/>
-      <c r="F81" s="159"/>
-      <c r="G81" s="159"/>
-      <c r="H81" s="159"/>
-      <c r="I81" s="160"/>
-      <c r="J81" s="158"/>
-      <c r="K81" s="159"/>
-      <c r="L81" s="159"/>
-      <c r="M81" s="159"/>
-      <c r="N81" s="159"/>
-      <c r="O81" s="160"/>
-      <c r="P81" s="158"/>
-      <c r="Q81" s="159"/>
-      <c r="R81" s="159"/>
-      <c r="S81" s="159"/>
-      <c r="T81" s="159"/>
-      <c r="U81" s="160"/>
-      <c r="V81" s="170" t="s">
+      <c r="A81" s="179"/>
+      <c r="B81" s="180"/>
+      <c r="C81" s="180"/>
+      <c r="D81" s="180"/>
+      <c r="E81" s="180"/>
+      <c r="F81" s="180"/>
+      <c r="G81" s="180"/>
+      <c r="H81" s="180"/>
+      <c r="I81" s="181"/>
+      <c r="J81" s="179"/>
+      <c r="K81" s="180"/>
+      <c r="L81" s="180"/>
+      <c r="M81" s="180"/>
+      <c r="N81" s="180"/>
+      <c r="O81" s="181"/>
+      <c r="P81" s="179"/>
+      <c r="Q81" s="180"/>
+      <c r="R81" s="180"/>
+      <c r="S81" s="180"/>
+      <c r="T81" s="180"/>
+      <c r="U81" s="181"/>
+      <c r="V81" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="W81" s="171"/>
-      <c r="X81" s="171"/>
-      <c r="Y81" s="171"/>
-      <c r="Z81" s="172"/>
-      <c r="AA81" s="173" t="s">
+      <c r="W81" s="192"/>
+      <c r="X81" s="192"/>
+      <c r="Y81" s="192"/>
+      <c r="Z81" s="193"/>
+      <c r="AA81" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="AB81" s="174"/>
-      <c r="AC81" s="174"/>
-      <c r="AD81" s="174"/>
-      <c r="AE81" s="174"/>
-      <c r="AF81" s="174"/>
-      <c r="AG81" s="175"/>
-      <c r="AH81" s="176" t="s">
+      <c r="AB81" s="195"/>
+      <c r="AC81" s="195"/>
+      <c r="AD81" s="195"/>
+      <c r="AE81" s="195"/>
+      <c r="AF81" s="195"/>
+      <c r="AG81" s="196"/>
+      <c r="AH81" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="AI81" s="177"/>
-      <c r="AJ81" s="177"/>
-      <c r="AK81" s="177"/>
-      <c r="AL81" s="178"/>
-      <c r="AM81" s="173" t="s">
+      <c r="AI81" s="198"/>
+      <c r="AJ81" s="198"/>
+      <c r="AK81" s="198"/>
+      <c r="AL81" s="199"/>
+      <c r="AM81" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AN81" s="174"/>
-      <c r="AO81" s="174"/>
-      <c r="AP81" s="174"/>
-      <c r="AQ81" s="174"/>
-      <c r="AR81" s="174"/>
-      <c r="AS81" s="174"/>
-      <c r="AT81" s="174"/>
-      <c r="AU81" s="174"/>
-      <c r="AV81" s="174"/>
-      <c r="AW81" s="179"/>
+      <c r="AN81" s="195"/>
+      <c r="AO81" s="195"/>
+      <c r="AP81" s="195"/>
+      <c r="AQ81" s="195"/>
+      <c r="AR81" s="195"/>
+      <c r="AS81" s="195"/>
+      <c r="AT81" s="195"/>
+      <c r="AU81" s="195"/>
+      <c r="AV81" s="195"/>
+      <c r="AW81" s="200"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A82" s="3"/>
@@ -6339,187 +6311,187 @@
       <c r="AW118" s="7"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A119" s="152" t="s">
+      <c r="A119" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="153"/>
-      <c r="C119" s="153"/>
-      <c r="D119" s="153"/>
-      <c r="E119" s="153"/>
-      <c r="F119" s="153"/>
-      <c r="G119" s="153"/>
-      <c r="H119" s="153"/>
-      <c r="I119" s="154"/>
-      <c r="J119" s="161" t="s">
+      <c r="B119" s="174"/>
+      <c r="C119" s="174"/>
+      <c r="D119" s="174"/>
+      <c r="E119" s="174"/>
+      <c r="F119" s="174"/>
+      <c r="G119" s="174"/>
+      <c r="H119" s="174"/>
+      <c r="I119" s="175"/>
+      <c r="J119" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="K119" s="153"/>
-      <c r="L119" s="153"/>
-      <c r="M119" s="153"/>
-      <c r="N119" s="153"/>
-      <c r="O119" s="154"/>
-      <c r="P119" s="161" t="s">
+      <c r="K119" s="174"/>
+      <c r="L119" s="174"/>
+      <c r="M119" s="174"/>
+      <c r="N119" s="174"/>
+      <c r="O119" s="175"/>
+      <c r="P119" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="Q119" s="153"/>
-      <c r="R119" s="153"/>
-      <c r="S119" s="153"/>
-      <c r="T119" s="153"/>
-      <c r="U119" s="154"/>
-      <c r="V119" s="162" t="s">
+      <c r="Q119" s="174"/>
+      <c r="R119" s="174"/>
+      <c r="S119" s="174"/>
+      <c r="T119" s="174"/>
+      <c r="U119" s="175"/>
+      <c r="V119" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="W119" s="163"/>
-      <c r="X119" s="163"/>
-      <c r="Y119" s="163"/>
-      <c r="Z119" s="164"/>
-      <c r="AA119" s="168" t="s">
+      <c r="W119" s="184"/>
+      <c r="X119" s="184"/>
+      <c r="Y119" s="184"/>
+      <c r="Z119" s="185"/>
+      <c r="AA119" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="AB119" s="153"/>
-      <c r="AC119" s="153"/>
-      <c r="AD119" s="153"/>
-      <c r="AE119" s="153"/>
-      <c r="AF119" s="153"/>
-      <c r="AG119" s="153"/>
-      <c r="AH119" s="153"/>
-      <c r="AI119" s="153"/>
-      <c r="AJ119" s="153"/>
-      <c r="AK119" s="153"/>
-      <c r="AL119" s="154"/>
-      <c r="AM119" s="183" t="s">
+      <c r="AB119" s="174"/>
+      <c r="AC119" s="174"/>
+      <c r="AD119" s="174"/>
+      <c r="AE119" s="174"/>
+      <c r="AF119" s="174"/>
+      <c r="AG119" s="174"/>
+      <c r="AH119" s="174"/>
+      <c r="AI119" s="174"/>
+      <c r="AJ119" s="174"/>
+      <c r="AK119" s="174"/>
+      <c r="AL119" s="175"/>
+      <c r="AM119" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="AN119" s="184"/>
-      <c r="AO119" s="180" t="s">
+      <c r="AN119" s="161"/>
+      <c r="AO119" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="AP119" s="181"/>
-      <c r="AQ119" s="182"/>
-      <c r="AR119" s="183" t="s">
+      <c r="AP119" s="158"/>
+      <c r="AQ119" s="159"/>
+      <c r="AR119" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="AS119" s="184"/>
-      <c r="AT119" s="185">
+      <c r="AS119" s="161"/>
+      <c r="AT119" s="162">
         <v>44936</v>
       </c>
-      <c r="AU119" s="186"/>
-      <c r="AV119" s="186"/>
-      <c r="AW119" s="187"/>
+      <c r="AU119" s="163"/>
+      <c r="AV119" s="163"/>
+      <c r="AW119" s="164"/>
     </row>
     <row r="120" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A120" s="155"/>
-      <c r="B120" s="156"/>
-      <c r="C120" s="156"/>
-      <c r="D120" s="156"/>
-      <c r="E120" s="156"/>
-      <c r="F120" s="156"/>
-      <c r="G120" s="156"/>
-      <c r="H120" s="156"/>
-      <c r="I120" s="157"/>
-      <c r="J120" s="155"/>
-      <c r="K120" s="156"/>
-      <c r="L120" s="156"/>
-      <c r="M120" s="156"/>
-      <c r="N120" s="156"/>
-      <c r="O120" s="157"/>
-      <c r="P120" s="155"/>
-      <c r="Q120" s="156"/>
-      <c r="R120" s="156"/>
-      <c r="S120" s="156"/>
-      <c r="T120" s="156"/>
-      <c r="U120" s="157"/>
-      <c r="V120" s="165"/>
-      <c r="W120" s="166"/>
-      <c r="X120" s="166"/>
-      <c r="Y120" s="166"/>
-      <c r="Z120" s="167"/>
-      <c r="AA120" s="169"/>
-      <c r="AB120" s="156"/>
-      <c r="AC120" s="156"/>
-      <c r="AD120" s="156"/>
-      <c r="AE120" s="156"/>
-      <c r="AF120" s="156"/>
-      <c r="AG120" s="156"/>
-      <c r="AH120" s="156"/>
-      <c r="AI120" s="156"/>
-      <c r="AJ120" s="156"/>
-      <c r="AK120" s="156"/>
-      <c r="AL120" s="157"/>
-      <c r="AM120" s="188" t="s">
+      <c r="A120" s="176"/>
+      <c r="B120" s="177"/>
+      <c r="C120" s="177"/>
+      <c r="D120" s="177"/>
+      <c r="E120" s="177"/>
+      <c r="F120" s="177"/>
+      <c r="G120" s="177"/>
+      <c r="H120" s="177"/>
+      <c r="I120" s="178"/>
+      <c r="J120" s="176"/>
+      <c r="K120" s="177"/>
+      <c r="L120" s="177"/>
+      <c r="M120" s="177"/>
+      <c r="N120" s="177"/>
+      <c r="O120" s="178"/>
+      <c r="P120" s="176"/>
+      <c r="Q120" s="177"/>
+      <c r="R120" s="177"/>
+      <c r="S120" s="177"/>
+      <c r="T120" s="177"/>
+      <c r="U120" s="178"/>
+      <c r="V120" s="186"/>
+      <c r="W120" s="187"/>
+      <c r="X120" s="187"/>
+      <c r="Y120" s="187"/>
+      <c r="Z120" s="188"/>
+      <c r="AA120" s="190"/>
+      <c r="AB120" s="177"/>
+      <c r="AC120" s="177"/>
+      <c r="AD120" s="177"/>
+      <c r="AE120" s="177"/>
+      <c r="AF120" s="177"/>
+      <c r="AG120" s="177"/>
+      <c r="AH120" s="177"/>
+      <c r="AI120" s="177"/>
+      <c r="AJ120" s="177"/>
+      <c r="AK120" s="177"/>
+      <c r="AL120" s="178"/>
+      <c r="AM120" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="AN120" s="189"/>
-      <c r="AO120" s="190"/>
-      <c r="AP120" s="191"/>
-      <c r="AQ120" s="192"/>
-      <c r="AR120" s="188" t="s">
+      <c r="AN120" s="166"/>
+      <c r="AO120" s="167"/>
+      <c r="AP120" s="168"/>
+      <c r="AQ120" s="169"/>
+      <c r="AR120" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="AS120" s="189"/>
-      <c r="AT120" s="193"/>
-      <c r="AU120" s="194"/>
-      <c r="AV120" s="194"/>
-      <c r="AW120" s="195"/>
+      <c r="AS120" s="166"/>
+      <c r="AT120" s="170"/>
+      <c r="AU120" s="171"/>
+      <c r="AV120" s="171"/>
+      <c r="AW120" s="172"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A121" s="158"/>
-      <c r="B121" s="159"/>
-      <c r="C121" s="159"/>
-      <c r="D121" s="159"/>
-      <c r="E121" s="159"/>
-      <c r="F121" s="159"/>
-      <c r="G121" s="159"/>
-      <c r="H121" s="159"/>
-      <c r="I121" s="160"/>
-      <c r="J121" s="158"/>
-      <c r="K121" s="159"/>
-      <c r="L121" s="159"/>
-      <c r="M121" s="159"/>
-      <c r="N121" s="159"/>
-      <c r="O121" s="160"/>
-      <c r="P121" s="158"/>
-      <c r="Q121" s="159"/>
-      <c r="R121" s="159"/>
-      <c r="S121" s="159"/>
-      <c r="T121" s="159"/>
-      <c r="U121" s="160"/>
-      <c r="V121" s="170" t="s">
+      <c r="A121" s="179"/>
+      <c r="B121" s="180"/>
+      <c r="C121" s="180"/>
+      <c r="D121" s="180"/>
+      <c r="E121" s="180"/>
+      <c r="F121" s="180"/>
+      <c r="G121" s="180"/>
+      <c r="H121" s="180"/>
+      <c r="I121" s="181"/>
+      <c r="J121" s="179"/>
+      <c r="K121" s="180"/>
+      <c r="L121" s="180"/>
+      <c r="M121" s="180"/>
+      <c r="N121" s="180"/>
+      <c r="O121" s="181"/>
+      <c r="P121" s="179"/>
+      <c r="Q121" s="180"/>
+      <c r="R121" s="180"/>
+      <c r="S121" s="180"/>
+      <c r="T121" s="180"/>
+      <c r="U121" s="181"/>
+      <c r="V121" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="W121" s="171"/>
-      <c r="X121" s="171"/>
-      <c r="Y121" s="171"/>
-      <c r="Z121" s="172"/>
-      <c r="AA121" s="173" t="s">
+      <c r="W121" s="192"/>
+      <c r="X121" s="192"/>
+      <c r="Y121" s="192"/>
+      <c r="Z121" s="193"/>
+      <c r="AA121" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="AB121" s="174"/>
-      <c r="AC121" s="174"/>
-      <c r="AD121" s="174"/>
-      <c r="AE121" s="174"/>
-      <c r="AF121" s="174"/>
-      <c r="AG121" s="175"/>
-      <c r="AH121" s="176" t="s">
+      <c r="AB121" s="195"/>
+      <c r="AC121" s="195"/>
+      <c r="AD121" s="195"/>
+      <c r="AE121" s="195"/>
+      <c r="AF121" s="195"/>
+      <c r="AG121" s="196"/>
+      <c r="AH121" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="AI121" s="177"/>
-      <c r="AJ121" s="177"/>
-      <c r="AK121" s="177"/>
-      <c r="AL121" s="178"/>
-      <c r="AM121" s="173" t="s">
+      <c r="AI121" s="198"/>
+      <c r="AJ121" s="198"/>
+      <c r="AK121" s="198"/>
+      <c r="AL121" s="199"/>
+      <c r="AM121" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AN121" s="174"/>
-      <c r="AO121" s="174"/>
-      <c r="AP121" s="174"/>
-      <c r="AQ121" s="174"/>
-      <c r="AR121" s="174"/>
-      <c r="AS121" s="174"/>
-      <c r="AT121" s="174"/>
-      <c r="AU121" s="174"/>
-      <c r="AV121" s="174"/>
-      <c r="AW121" s="179"/>
+      <c r="AN121" s="195"/>
+      <c r="AO121" s="195"/>
+      <c r="AP121" s="195"/>
+      <c r="AQ121" s="195"/>
+      <c r="AR121" s="195"/>
+      <c r="AS121" s="195"/>
+      <c r="AT121" s="195"/>
+      <c r="AU121" s="195"/>
+      <c r="AV121" s="195"/>
+      <c r="AW121" s="200"/>
     </row>
     <row r="122" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A122" s="3"/>
@@ -6831,7 +6803,7 @@
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" spans="1:51" ht="13.5" customHeight="1">
+    <row r="129" spans="1:50" ht="13.5" customHeight="1">
       <c r="A129" s="3"/>
       <c r="D129" s="80"/>
       <c r="E129" s="67">
@@ -6891,7 +6863,7 @@
       <c r="AW129" s="2"/>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" spans="1:51" ht="13.5" customHeight="1">
+    <row r="130" spans="1:50" ht="13.5" customHeight="1">
       <c r="A130" s="3"/>
       <c r="D130" s="80"/>
       <c r="E130" s="75">
@@ -6951,7 +6923,7 @@
       <c r="AW130" s="2"/>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" spans="1:51" ht="13.5" customHeight="1">
+    <row r="131" spans="1:50" ht="13.5" customHeight="1">
       <c r="A131" s="3"/>
       <c r="D131" s="6"/>
       <c r="E131" s="67">
@@ -7010,7 +6982,7 @@
       <c r="AV131" s="6"/>
       <c r="AW131" s="7"/>
     </row>
-    <row r="132" spans="1:51" ht="13.5" customHeight="1">
+    <row r="132" spans="1:50" ht="13.5" customHeight="1">
       <c r="A132" s="3"/>
       <c r="D132" s="6"/>
       <c r="E132" s="75">
@@ -7070,499 +7042,522 @@
       <c r="AW132" s="2"/>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" spans="1:51" ht="13.5" customHeight="1">
+    <row r="133" spans="1:50" ht="13.5" customHeight="1">
       <c r="A133" s="3"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
-      <c r="Z133" s="2"/>
-      <c r="AA133" s="2"/>
-      <c r="AB133" s="2"/>
-      <c r="AC133" s="2"/>
-      <c r="AD133" s="2"/>
-      <c r="AE133" s="2"/>
-      <c r="AF133" s="2"/>
-      <c r="AG133" s="2"/>
-      <c r="AH133" s="2"/>
-      <c r="AI133" s="2"/>
-      <c r="AJ133" s="2"/>
-      <c r="AK133" s="2"/>
-      <c r="AL133" s="2"/>
-      <c r="AM133" s="2"/>
-      <c r="AN133" s="2"/>
-      <c r="AO133" s="2"/>
-      <c r="AP133" s="2"/>
-      <c r="AQ133" s="2"/>
-      <c r="AR133" s="2"/>
-      <c r="AS133" s="2"/>
-      <c r="AT133" s="2"/>
-      <c r="AU133" s="2"/>
+      <c r="E133" s="75">
+        <v>7</v>
+      </c>
+      <c r="F133" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
+      <c r="I133" s="53"/>
+      <c r="J133" s="53"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="77"/>
+      <c r="M133" s="77"/>
+      <c r="N133" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="O133" s="77"/>
+      <c r="P133" s="77"/>
+      <c r="Q133" s="77"/>
+      <c r="R133" s="77"/>
+      <c r="S133" s="77"/>
+      <c r="T133" s="77"/>
+      <c r="U133" s="77"/>
+      <c r="V133" s="77"/>
+      <c r="W133" s="77"/>
+      <c r="X133" s="77"/>
+      <c r="Y133" s="77"/>
+      <c r="Z133" s="77"/>
+      <c r="AA133" s="77"/>
+      <c r="AB133" s="77"/>
+      <c r="AC133" s="78"/>
+      <c r="AD133" s="77"/>
+      <c r="AE133" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF133" s="77"/>
+      <c r="AG133" s="77"/>
+      <c r="AH133" s="77"/>
+      <c r="AI133" s="77"/>
+      <c r="AJ133" s="77"/>
+      <c r="AK133" s="77"/>
+      <c r="AL133" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM133" s="77"/>
+      <c r="AN133" s="78"/>
+      <c r="AO133" s="77"/>
+      <c r="AP133" s="77"/>
+      <c r="AQ133" s="77"/>
+      <c r="AR133" s="77"/>
+      <c r="AS133" s="77"/>
+      <c r="AT133" s="77"/>
+      <c r="AU133" s="78"/>
       <c r="AV133" s="2"/>
       <c r="AW133" s="2"/>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" spans="1:51" ht="13.5" customHeight="1">
+    <row r="134" spans="1:50" ht="13.5" customHeight="1">
       <c r="A134" s="3"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="2"/>
-      <c r="S134" s="2"/>
-      <c r="T134" s="2"/>
-      <c r="U134" s="2"/>
-      <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
-      <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
-      <c r="Z134" s="2"/>
-      <c r="AA134" s="2"/>
-      <c r="AB134" s="2"/>
-      <c r="AC134" s="2"/>
-      <c r="AD134" s="2"/>
-      <c r="AE134" s="2"/>
-      <c r="AF134" s="2"/>
-      <c r="AG134" s="2"/>
-      <c r="AH134" s="2"/>
-      <c r="AI134" s="2"/>
-      <c r="AJ134" s="2"/>
-      <c r="AK134" s="2"/>
-      <c r="AL134" s="2"/>
-      <c r="AM134" s="2"/>
-      <c r="AN134" s="2"/>
-      <c r="AO134" s="2"/>
-      <c r="AP134" s="2"/>
-      <c r="AQ134" s="2"/>
-      <c r="AR134" s="2"/>
-      <c r="AS134" s="2"/>
-      <c r="AT134" s="2"/>
-      <c r="AU134" s="2"/>
+      <c r="E134" s="67">
+        <v>8</v>
+      </c>
+      <c r="F134" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="72"/>
+      <c r="M134" s="72"/>
+      <c r="N134" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="O134" s="72"/>
+      <c r="P134" s="72"/>
+      <c r="Q134" s="72"/>
+      <c r="R134" s="72"/>
+      <c r="S134" s="72"/>
+      <c r="T134" s="72"/>
+      <c r="U134" s="72"/>
+      <c r="V134" s="72"/>
+      <c r="W134" s="72"/>
+      <c r="X134" s="72"/>
+      <c r="Y134" s="72"/>
+      <c r="Z134" s="72"/>
+      <c r="AA134" s="72"/>
+      <c r="AB134" s="72"/>
+      <c r="AC134" s="73"/>
+      <c r="AD134" s="72"/>
+      <c r="AE134" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF134" s="72"/>
+      <c r="AG134" s="72"/>
+      <c r="AH134" s="72"/>
+      <c r="AI134" s="72"/>
+      <c r="AJ134" s="72"/>
+      <c r="AK134" s="72"/>
+      <c r="AL134" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM134" s="72"/>
+      <c r="AN134" s="73"/>
+      <c r="AO134" s="72"/>
+      <c r="AP134" s="72"/>
+      <c r="AQ134" s="72"/>
+      <c r="AR134" s="72"/>
+      <c r="AS134" s="72"/>
+      <c r="AT134" s="72"/>
+      <c r="AU134" s="73"/>
       <c r="AV134" s="2"/>
       <c r="AW134" s="2"/>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" spans="1:51" ht="13.5" customHeight="1">
+    <row r="135" spans="1:50" ht="13.5" customHeight="1">
       <c r="A135" s="3"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="64"/>
-      <c r="F135" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" s="65"/>
-      <c r="H135" s="65"/>
-      <c r="I135" s="65"/>
-      <c r="J135" s="65"/>
-      <c r="K135" s="65"/>
-      <c r="L135" s="65"/>
-      <c r="M135" s="66"/>
-      <c r="N135" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="O135" s="65"/>
-      <c r="P135" s="65"/>
-      <c r="Q135" s="65"/>
-      <c r="R135" s="65"/>
-      <c r="S135" s="65"/>
-      <c r="T135" s="65"/>
-      <c r="U135" s="65"/>
-      <c r="V135" s="65"/>
-      <c r="W135" s="65"/>
-      <c r="X135" s="65"/>
-      <c r="Y135" s="65"/>
-      <c r="Z135" s="65"/>
-      <c r="AA135" s="65"/>
-      <c r="AB135" s="65"/>
-      <c r="AC135" s="65"/>
-      <c r="AD135" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE135" s="65"/>
-      <c r="AF135" s="65"/>
-      <c r="AG135" s="65"/>
-      <c r="AH135" s="65"/>
-      <c r="AI135" s="65"/>
-      <c r="AJ135" s="65"/>
-      <c r="AK135" s="65"/>
-      <c r="AL135" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM135" s="66"/>
-      <c r="AN135" s="81"/>
-      <c r="AO135" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP135" s="65"/>
-      <c r="AQ135" s="65"/>
-      <c r="AR135" s="65"/>
-      <c r="AS135" s="65"/>
-      <c r="AT135" s="65"/>
-      <c r="AU135" s="66"/>
+      <c r="E135" s="75">
+        <v>9</v>
+      </c>
+      <c r="F135" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
+      <c r="I135" s="53"/>
+      <c r="J135" s="53"/>
+      <c r="K135" s="54"/>
+      <c r="L135" s="77"/>
+      <c r="M135" s="77"/>
+      <c r="N135" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="O135" s="77"/>
+      <c r="P135" s="77"/>
+      <c r="Q135" s="77"/>
+      <c r="R135" s="77"/>
+      <c r="S135" s="77"/>
+      <c r="T135" s="77"/>
+      <c r="U135" s="77"/>
+      <c r="V135" s="77"/>
+      <c r="W135" s="77"/>
+      <c r="X135" s="77"/>
+      <c r="Y135" s="77"/>
+      <c r="Z135" s="77"/>
+      <c r="AA135" s="77"/>
+      <c r="AB135" s="77"/>
+      <c r="AC135" s="78"/>
+      <c r="AD135" s="77"/>
+      <c r="AE135" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF135" s="77"/>
+      <c r="AG135" s="77"/>
+      <c r="AH135" s="77"/>
+      <c r="AI135" s="77"/>
+      <c r="AJ135" s="77"/>
+      <c r="AK135" s="77"/>
+      <c r="AL135" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM135" s="77"/>
+      <c r="AN135" s="78"/>
+      <c r="AO135" s="77"/>
+      <c r="AP135" s="77"/>
+      <c r="AQ135" s="77"/>
+      <c r="AR135" s="77"/>
+      <c r="AS135" s="77"/>
+      <c r="AT135" s="77"/>
+      <c r="AU135" s="78"/>
       <c r="AV135" s="2"/>
       <c r="AW135" s="2"/>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" spans="1:51" ht="13.5" customHeight="1">
+    <row r="136" spans="1:50" ht="13.5" customHeight="1">
       <c r="A136" s="3"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="67">
-        <v>1</v>
-      </c>
-      <c r="F136" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
-      <c r="I136" s="72"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="72"/>
-      <c r="L136" s="72"/>
-      <c r="M136" s="72"/>
-      <c r="N136" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="O136" s="72"/>
-      <c r="P136" s="72"/>
-      <c r="Q136" s="72"/>
-      <c r="R136" s="72"/>
-      <c r="S136" s="72"/>
-      <c r="T136" s="72"/>
-      <c r="U136" s="72"/>
-      <c r="V136" s="72"/>
-      <c r="W136" s="72"/>
-      <c r="X136" s="72"/>
-      <c r="Y136" s="72"/>
-      <c r="Z136" s="72"/>
-      <c r="AA136" s="72"/>
-      <c r="AB136" s="72"/>
-      <c r="AC136" s="73"/>
-      <c r="AD136" s="72"/>
-      <c r="AE136" s="72"/>
-      <c r="AF136" s="72"/>
-      <c r="AG136" s="72"/>
-      <c r="AH136" s="72"/>
-      <c r="AI136" s="72"/>
-      <c r="AJ136" s="72"/>
-      <c r="AK136" s="72"/>
-      <c r="AL136" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM136" s="72"/>
-      <c r="AN136" s="73"/>
-      <c r="AO136" s="72"/>
-      <c r="AP136" s="72"/>
-      <c r="AQ136" s="72"/>
-      <c r="AR136" s="72"/>
-      <c r="AS136" s="72"/>
-      <c r="AT136" s="72"/>
-      <c r="AU136" s="73"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
+      <c r="AB136" s="2"/>
+      <c r="AC136" s="2"/>
+      <c r="AD136" s="2"/>
+      <c r="AE136" s="2"/>
+      <c r="AF136" s="2"/>
+      <c r="AG136" s="2"/>
+      <c r="AH136" s="2"/>
+      <c r="AI136" s="2"/>
+      <c r="AJ136" s="2"/>
+      <c r="AK136" s="2"/>
+      <c r="AL136" s="2"/>
+      <c r="AM136" s="2"/>
+      <c r="AN136" s="2"/>
+      <c r="AO136" s="2"/>
+      <c r="AP136" s="2"/>
+      <c r="AQ136" s="2"/>
+      <c r="AR136" s="2"/>
+      <c r="AS136" s="2"/>
+      <c r="AT136" s="2"/>
+      <c r="AU136" s="2"/>
       <c r="AV136" s="2"/>
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" spans="1:51" ht="13.5" customHeight="1">
+    <row r="137" spans="1:50" ht="13.5" customHeight="1">
       <c r="A137" s="3"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="75">
-        <v>2</v>
-      </c>
-      <c r="F137" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="G137" s="77"/>
-      <c r="H137" s="77"/>
-      <c r="I137" s="77"/>
-      <c r="J137" s="77"/>
-      <c r="K137" s="77"/>
-      <c r="L137" s="77"/>
-      <c r="M137" s="77"/>
-      <c r="N137" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="O137" s="77"/>
-      <c r="P137" s="77"/>
-      <c r="Q137" s="77"/>
-      <c r="R137" s="77"/>
-      <c r="S137" s="77"/>
-      <c r="T137" s="77"/>
-      <c r="U137" s="77"/>
-      <c r="V137" s="77"/>
-      <c r="W137" s="77"/>
-      <c r="X137" s="77"/>
-      <c r="Y137" s="77"/>
-      <c r="Z137" s="77"/>
-      <c r="AA137" s="77"/>
-      <c r="AB137" s="77"/>
-      <c r="AC137" s="78"/>
-      <c r="AD137" s="77"/>
-      <c r="AE137" s="82"/>
-      <c r="AF137" s="77"/>
-      <c r="AG137" s="77"/>
-      <c r="AH137" s="77"/>
-      <c r="AI137" s="77"/>
-      <c r="AJ137" s="77"/>
-      <c r="AK137" s="77"/>
-      <c r="AL137" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM137" s="77"/>
-      <c r="AN137" s="78"/>
-      <c r="AO137" s="77"/>
-      <c r="AP137" s="77"/>
-      <c r="AQ137" s="77"/>
-      <c r="AR137" s="77"/>
-      <c r="AS137" s="77"/>
-      <c r="AT137" s="77"/>
-      <c r="AU137" s="78"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="2"/>
+      <c r="AC137" s="2"/>
+      <c r="AD137" s="2"/>
+      <c r="AE137" s="2"/>
+      <c r="AF137" s="2"/>
+      <c r="AG137" s="2"/>
+      <c r="AH137" s="2"/>
+      <c r="AI137" s="2"/>
+      <c r="AJ137" s="2"/>
+      <c r="AK137" s="2"/>
+      <c r="AL137" s="2"/>
+      <c r="AM137" s="2"/>
+      <c r="AN137" s="2"/>
+      <c r="AO137" s="2"/>
+      <c r="AP137" s="2"/>
+      <c r="AQ137" s="2"/>
+      <c r="AR137" s="2"/>
+      <c r="AS137" s="2"/>
+      <c r="AT137" s="2"/>
+      <c r="AU137" s="2"/>
       <c r="AV137" s="2"/>
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" spans="1:51" ht="13.5" customHeight="1">
+    <row r="138" spans="1:50" ht="13.5" customHeight="1">
       <c r="A138" s="3"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="75">
-        <v>3</v>
-      </c>
-      <c r="F138" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="G138" s="77"/>
-      <c r="H138" s="77"/>
-      <c r="I138" s="77"/>
-      <c r="J138" s="77"/>
-      <c r="K138" s="77"/>
-      <c r="L138" s="77"/>
-      <c r="M138" s="77"/>
-      <c r="N138" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="O138" s="77"/>
-      <c r="P138" s="77"/>
-      <c r="Q138" s="77"/>
-      <c r="R138" s="77"/>
-      <c r="S138" s="77"/>
-      <c r="T138" s="77"/>
-      <c r="U138" s="77"/>
-      <c r="V138" s="77"/>
-      <c r="W138" s="77"/>
-      <c r="X138" s="77"/>
-      <c r="Y138" s="77"/>
-      <c r="Z138" s="77"/>
-      <c r="AA138" s="77"/>
-      <c r="AB138" s="77"/>
-      <c r="AC138" s="78"/>
-      <c r="AD138" s="77"/>
-      <c r="AE138" s="82"/>
-      <c r="AF138" s="77"/>
-      <c r="AG138" s="77"/>
-      <c r="AH138" s="77"/>
-      <c r="AI138" s="77"/>
-      <c r="AJ138" s="77"/>
-      <c r="AK138" s="77"/>
-      <c r="AL138" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM138" s="77"/>
-      <c r="AN138" s="78"/>
-      <c r="AO138" s="77"/>
-      <c r="AP138" s="77"/>
-      <c r="AQ138" s="77"/>
-      <c r="AR138" s="77"/>
-      <c r="AS138" s="77"/>
-      <c r="AT138" s="77"/>
-      <c r="AU138" s="78"/>
+      <c r="E138" s="64"/>
+      <c r="F138" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65"/>
+      <c r="K138" s="65"/>
+      <c r="L138" s="65"/>
+      <c r="M138" s="66"/>
+      <c r="N138" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="O138" s="65"/>
+      <c r="P138" s="65"/>
+      <c r="Q138" s="65"/>
+      <c r="R138" s="65"/>
+      <c r="S138" s="65"/>
+      <c r="T138" s="65"/>
+      <c r="U138" s="65"/>
+      <c r="V138" s="65"/>
+      <c r="W138" s="65"/>
+      <c r="X138" s="65"/>
+      <c r="Y138" s="65"/>
+      <c r="Z138" s="65"/>
+      <c r="AA138" s="65"/>
+      <c r="AB138" s="65"/>
+      <c r="AC138" s="65"/>
+      <c r="AD138" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE138" s="65"/>
+      <c r="AF138" s="65"/>
+      <c r="AG138" s="65"/>
+      <c r="AH138" s="65"/>
+      <c r="AI138" s="65"/>
+      <c r="AJ138" s="65"/>
+      <c r="AK138" s="65"/>
+      <c r="AL138" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM138" s="66"/>
+      <c r="AN138" s="81"/>
+      <c r="AO138" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP138" s="65"/>
+      <c r="AQ138" s="65"/>
+      <c r="AR138" s="65"/>
+      <c r="AS138" s="65"/>
+      <c r="AT138" s="65"/>
+      <c r="AU138" s="66"/>
       <c r="AV138" s="6"/>
       <c r="AW138" s="7"/>
     </row>
-    <row r="139" spans="1:51" ht="13.5" customHeight="1">
+    <row r="139" spans="1:50" ht="13.5" customHeight="1">
       <c r="A139" s="3"/>
-      <c r="C139" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D139" s="6"/>
-      <c r="E139" s="62"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="83"/>
-      <c r="L139" s="83"/>
-      <c r="M139" s="83"/>
-      <c r="N139" s="83"/>
-      <c r="O139" s="83"/>
-      <c r="P139" s="83"/>
-      <c r="Q139" s="83"/>
-      <c r="R139" s="83"/>
-      <c r="S139" s="83"/>
-      <c r="T139" s="83"/>
-      <c r="U139" s="83"/>
-      <c r="V139" s="83"/>
-      <c r="W139" s="83"/>
-      <c r="X139" s="83"/>
-      <c r="Y139" s="83"/>
-      <c r="Z139" s="83"/>
-      <c r="AA139" s="83"/>
-      <c r="AB139" s="83"/>
-      <c r="AC139" s="83"/>
-      <c r="AD139" s="83"/>
-      <c r="AE139" s="15"/>
-      <c r="AF139" s="83"/>
-      <c r="AG139" s="83"/>
-      <c r="AH139" s="83"/>
-      <c r="AI139" s="83"/>
-      <c r="AJ139" s="83"/>
-      <c r="AK139" s="83"/>
-      <c r="AL139" s="83"/>
-      <c r="AM139" s="83"/>
-      <c r="AN139" s="83"/>
-      <c r="AO139" s="83"/>
-      <c r="AP139" s="83"/>
-      <c r="AQ139" s="83"/>
-      <c r="AR139" s="83"/>
-      <c r="AS139" s="83"/>
-      <c r="AT139" s="83"/>
-      <c r="AU139" s="83"/>
+      <c r="E139" s="67">
+        <v>1</v>
+      </c>
+      <c r="F139" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="G139" s="72"/>
+      <c r="H139" s="72"/>
+      <c r="I139" s="72"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="72"/>
+      <c r="L139" s="72"/>
+      <c r="M139" s="72"/>
+      <c r="N139" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="P139" s="72"/>
+      <c r="Q139" s="72"/>
+      <c r="R139" s="72"/>
+      <c r="S139" s="72"/>
+      <c r="T139" s="72"/>
+      <c r="U139" s="72"/>
+      <c r="V139" s="72"/>
+      <c r="W139" s="72"/>
+      <c r="X139" s="72"/>
+      <c r="Y139" s="72"/>
+      <c r="Z139" s="72"/>
+      <c r="AA139" s="72"/>
+      <c r="AB139" s="72"/>
+      <c r="AC139" s="73"/>
+      <c r="AD139" s="72"/>
+      <c r="AE139" s="72"/>
+      <c r="AF139" s="72"/>
+      <c r="AG139" s="72"/>
+      <c r="AH139" s="72"/>
+      <c r="AI139" s="72"/>
+      <c r="AJ139" s="72"/>
+      <c r="AK139" s="72"/>
+      <c r="AL139" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM139" s="72"/>
+      <c r="AN139" s="73"/>
+      <c r="AO139" s="72"/>
+      <c r="AP139" s="72"/>
+      <c r="AQ139" s="72"/>
+      <c r="AR139" s="72"/>
+      <c r="AS139" s="72"/>
+      <c r="AT139" s="72"/>
+      <c r="AU139" s="73"/>
       <c r="AV139" s="6"/>
       <c r="AW139" s="7"/>
     </row>
-    <row r="140" spans="1:51" ht="13.5" customHeight="1">
+    <row r="140" spans="1:50" ht="13.5" customHeight="1">
       <c r="A140" s="3"/>
-      <c r="D140" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E140" s="62"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-      <c r="T140" s="6"/>
-      <c r="U140" s="6"/>
-      <c r="V140" s="6"/>
-      <c r="W140" s="6"/>
-      <c r="X140" s="6"/>
-      <c r="Y140" s="6"/>
-      <c r="Z140" s="6"/>
-      <c r="AA140" s="6"/>
-      <c r="AB140" s="6"/>
-      <c r="AC140" s="6"/>
-      <c r="AD140" s="6"/>
-      <c r="AE140" s="2"/>
-      <c r="AF140" s="6"/>
-      <c r="AG140" s="6"/>
-      <c r="AH140" s="6"/>
-      <c r="AI140" s="6"/>
-      <c r="AJ140" s="6"/>
-      <c r="AK140" s="6"/>
-      <c r="AL140" s="6"/>
-      <c r="AM140" s="6"/>
-      <c r="AN140" s="6"/>
-      <c r="AO140" s="6"/>
-      <c r="AP140" s="6"/>
-      <c r="AQ140" s="6"/>
-      <c r="AR140" s="6"/>
-      <c r="AS140" s="6"/>
-      <c r="AT140" s="6"/>
-      <c r="AU140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="75">
+        <v>2</v>
+      </c>
+      <c r="F140" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="G140" s="77"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="77"/>
+      <c r="M140" s="77"/>
+      <c r="N140" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="O140" s="77"/>
+      <c r="P140" s="77"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="77"/>
+      <c r="S140" s="77"/>
+      <c r="T140" s="77"/>
+      <c r="U140" s="77"/>
+      <c r="V140" s="77"/>
+      <c r="W140" s="77"/>
+      <c r="X140" s="77"/>
+      <c r="Y140" s="77"/>
+      <c r="Z140" s="77"/>
+      <c r="AA140" s="77"/>
+      <c r="AB140" s="77"/>
+      <c r="AC140" s="78"/>
+      <c r="AD140" s="77"/>
+      <c r="AE140" s="82"/>
+      <c r="AF140" s="77"/>
+      <c r="AG140" s="77"/>
+      <c r="AH140" s="77"/>
+      <c r="AI140" s="77"/>
+      <c r="AJ140" s="77"/>
+      <c r="AK140" s="77"/>
+      <c r="AL140" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM140" s="77"/>
+      <c r="AN140" s="78"/>
+      <c r="AO140" s="77"/>
+      <c r="AP140" s="77"/>
+      <c r="AQ140" s="77"/>
+      <c r="AR140" s="77"/>
+      <c r="AS140" s="77"/>
+      <c r="AT140" s="77"/>
+      <c r="AU140" s="78"/>
       <c r="AV140" s="6"/>
       <c r="AW140" s="7"/>
     </row>
-    <row r="141" spans="1:51" ht="13.5" customHeight="1">
+    <row r="141" spans="1:50" ht="13.5" customHeight="1">
       <c r="A141" s="3"/>
-      <c r="D141" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E141" s="62"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
-      <c r="T141" s="6"/>
-      <c r="U141" s="6"/>
-      <c r="V141" s="6"/>
-      <c r="W141" s="6"/>
-      <c r="X141" s="6"/>
-      <c r="Y141" s="6"/>
-      <c r="Z141" s="6"/>
-      <c r="AA141" s="6"/>
-      <c r="AB141" s="6"/>
-      <c r="AC141" s="6"/>
-      <c r="AD141" s="6"/>
-      <c r="AE141" s="2"/>
-      <c r="AF141" s="6"/>
-      <c r="AG141" s="6"/>
-      <c r="AH141" s="6"/>
-      <c r="AI141" s="6"/>
-      <c r="AJ141" s="6"/>
-      <c r="AK141" s="6"/>
-      <c r="AL141" s="6"/>
-      <c r="AM141" s="6"/>
-      <c r="AN141" s="6"/>
-      <c r="AO141" s="6"/>
-      <c r="AP141" s="6"/>
-      <c r="AQ141" s="6"/>
-      <c r="AR141" s="6"/>
-      <c r="AS141" s="6"/>
-      <c r="AT141" s="6"/>
-      <c r="AU141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="75">
+        <v>3</v>
+      </c>
+      <c r="F141" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="77"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="77"/>
+      <c r="L141" s="77"/>
+      <c r="M141" s="77"/>
+      <c r="N141" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="O141" s="77"/>
+      <c r="P141" s="77"/>
+      <c r="Q141" s="77"/>
+      <c r="R141" s="77"/>
+      <c r="S141" s="77"/>
+      <c r="T141" s="77"/>
+      <c r="U141" s="77"/>
+      <c r="V141" s="77"/>
+      <c r="W141" s="77"/>
+      <c r="X141" s="77"/>
+      <c r="Y141" s="77"/>
+      <c r="Z141" s="77"/>
+      <c r="AA141" s="77"/>
+      <c r="AB141" s="77"/>
+      <c r="AC141" s="78"/>
+      <c r="AD141" s="77"/>
+      <c r="AE141" s="82"/>
+      <c r="AF141" s="77"/>
+      <c r="AG141" s="77"/>
+      <c r="AH141" s="77"/>
+      <c r="AI141" s="77"/>
+      <c r="AJ141" s="77"/>
+      <c r="AK141" s="77"/>
+      <c r="AL141" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM141" s="77"/>
+      <c r="AN141" s="78"/>
+      <c r="AO141" s="77"/>
+      <c r="AP141" s="77"/>
+      <c r="AQ141" s="77"/>
+      <c r="AR141" s="77"/>
+      <c r="AS141" s="77"/>
+      <c r="AT141" s="77"/>
+      <c r="AU141" s="78"/>
       <c r="AV141" s="6"/>
       <c r="AW141" s="7"/>
     </row>
-    <row r="142" spans="1:51" ht="13.5" customHeight="1">
+    <row r="142" spans="1:50" ht="13.5" customHeight="1">
       <c r="A142" s="3"/>
+      <c r="C142" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D142" s="6"/>
-      <c r="E142" s="84" t="s">
-        <v>66</v>
-      </c>
+      <c r="E142" s="84"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -7608,831 +7603,838 @@
       <c r="AV142" s="6"/>
       <c r="AW142" s="7"/>
     </row>
-    <row r="143" spans="1:51" ht="13.5" customHeight="1">
+    <row r="143" spans="1:50" ht="13.5" customHeight="1">
       <c r="A143" s="3"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" s="87"/>
-      <c r="H143" s="87"/>
-      <c r="I143" s="87"/>
-      <c r="J143" s="87"/>
-      <c r="K143" s="87"/>
-      <c r="L143" s="87"/>
-      <c r="M143" s="87"/>
-      <c r="N143" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="O143" s="87"/>
-      <c r="P143" s="87"/>
-      <c r="Q143" s="87"/>
-      <c r="R143" s="87"/>
-      <c r="S143" s="87"/>
-      <c r="T143" s="87"/>
-      <c r="U143" s="87"/>
-      <c r="V143" s="88"/>
-      <c r="W143" s="88"/>
-      <c r="X143" s="88"/>
-      <c r="Y143" s="88"/>
-      <c r="Z143" s="88"/>
-      <c r="AA143" s="88"/>
-      <c r="AB143" s="88"/>
-      <c r="AC143" s="88"/>
-      <c r="AD143" s="88"/>
-      <c r="AE143" s="88"/>
-      <c r="AF143" s="88"/>
-      <c r="AG143" s="88"/>
-      <c r="AH143" s="88"/>
-      <c r="AI143" s="88"/>
-      <c r="AJ143" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK143" s="88"/>
-      <c r="AL143" s="88"/>
-      <c r="AM143" s="88"/>
-      <c r="AN143" s="88"/>
-      <c r="AO143" s="88"/>
-      <c r="AP143" s="88"/>
-      <c r="AQ143" s="88"/>
-      <c r="AR143" s="88"/>
-      <c r="AS143" s="88"/>
-      <c r="AT143" s="88"/>
-      <c r="AU143" s="89"/>
-      <c r="AV143" s="6"/>
-      <c r="AW143" s="7"/>
-    </row>
-    <row r="144" spans="1:51" ht="13.5" customHeight="1">
+      <c r="D143" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="2"/>
+      <c r="X143" s="2"/>
+      <c r="Y143" s="2"/>
+      <c r="Z143" s="2"/>
+      <c r="AA143" s="2"/>
+      <c r="AB143" s="2"/>
+      <c r="AC143" s="2"/>
+      <c r="AD143" s="2"/>
+      <c r="AE143" s="2"/>
+      <c r="AF143" s="2"/>
+      <c r="AG143" s="2"/>
+      <c r="AH143" s="2"/>
+      <c r="AI143" s="2"/>
+      <c r="AJ143" s="2"/>
+      <c r="AK143" s="2"/>
+      <c r="AL143" s="2"/>
+      <c r="AM143" s="2"/>
+      <c r="AN143" s="2"/>
+      <c r="AO143" s="2"/>
+      <c r="AP143" s="2"/>
+      <c r="AQ143" s="2"/>
+      <c r="AR143" s="2"/>
+      <c r="AS143" s="2"/>
+      <c r="AT143" s="2"/>
+      <c r="AU143" s="2"/>
+      <c r="AV143" s="2"/>
+      <c r="AW143" s="2"/>
+      <c r="AX143" s="2"/>
+    </row>
+    <row r="144" spans="1:50" ht="13.5" customHeight="1">
       <c r="A144" s="3"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="90">
-        <v>1</v>
-      </c>
-      <c r="F144" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="G144" s="92"/>
-      <c r="H144" s="92"/>
-      <c r="I144" s="93"/>
-      <c r="J144" s="93"/>
-      <c r="K144" s="93"/>
-      <c r="L144" s="93"/>
-      <c r="M144" s="94"/>
-      <c r="N144" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="O144" s="92"/>
-      <c r="P144" s="92"/>
-      <c r="Q144" s="93"/>
-      <c r="R144" s="93"/>
-      <c r="S144" s="93"/>
-      <c r="T144" s="93"/>
-      <c r="U144" s="93"/>
-      <c r="V144" s="96"/>
-      <c r="W144" s="96"/>
-      <c r="X144" s="96"/>
-      <c r="Y144" s="96"/>
-      <c r="Z144" s="96"/>
-      <c r="AA144" s="96"/>
-      <c r="AB144" s="96"/>
-      <c r="AC144" s="96"/>
-      <c r="AD144" s="96"/>
-      <c r="AE144" s="96"/>
-      <c r="AF144" s="96"/>
-      <c r="AG144" s="96"/>
-      <c r="AH144" s="96"/>
-      <c r="AI144" s="97"/>
-      <c r="AJ144" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK144" s="99"/>
-      <c r="AL144" s="99"/>
-      <c r="AM144" s="99"/>
-      <c r="AN144" s="99"/>
-      <c r="AO144" s="99"/>
-      <c r="AP144" s="99"/>
-      <c r="AQ144" s="99"/>
-      <c r="AR144" s="99"/>
-      <c r="AS144" s="99"/>
-      <c r="AT144" s="99"/>
-      <c r="AU144" s="100"/>
-      <c r="AV144" s="6"/>
-      <c r="AW144" s="7"/>
-      <c r="AY144" s="101"/>
-    </row>
-    <row r="145" spans="1:51" ht="13.5" customHeight="1">
+      <c r="D144" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
+      <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
+      <c r="AB144" s="2"/>
+      <c r="AC144" s="2"/>
+      <c r="AD144" s="2"/>
+      <c r="AE144" s="2"/>
+      <c r="AF144" s="2"/>
+      <c r="AG144" s="2"/>
+      <c r="AH144" s="2"/>
+      <c r="AI144" s="2"/>
+      <c r="AJ144" s="2"/>
+      <c r="AK144" s="2"/>
+      <c r="AL144" s="2"/>
+      <c r="AM144" s="2"/>
+      <c r="AN144" s="2"/>
+      <c r="AO144" s="2"/>
+      <c r="AP144" s="2"/>
+      <c r="AQ144" s="2"/>
+      <c r="AR144" s="2"/>
+      <c r="AS144" s="2"/>
+      <c r="AT144" s="2"/>
+      <c r="AU144" s="2"/>
+      <c r="AV144" s="2"/>
+      <c r="AW144" s="2"/>
+      <c r="AX144" s="2"/>
+    </row>
+    <row r="145" spans="1:50" ht="13.5" customHeight="1">
       <c r="A145" s="3"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="102">
-        <v>2</v>
-      </c>
-      <c r="F145" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="G145" s="104"/>
-      <c r="H145" s="104"/>
-      <c r="I145" s="105"/>
-      <c r="J145" s="105"/>
-      <c r="K145" s="105"/>
-      <c r="L145" s="105"/>
-      <c r="M145" s="106"/>
-      <c r="N145" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="O145" s="104"/>
-      <c r="P145" s="104"/>
-      <c r="Q145" s="105"/>
-      <c r="R145" s="105"/>
-      <c r="S145" s="105"/>
-      <c r="T145" s="105"/>
-      <c r="U145" s="105"/>
-      <c r="V145" s="107"/>
-      <c r="W145" s="107"/>
-      <c r="X145" s="107"/>
-      <c r="Y145" s="107"/>
-      <c r="Z145" s="107"/>
-      <c r="AA145" s="107"/>
-      <c r="AB145" s="107"/>
-      <c r="AC145" s="107"/>
-      <c r="AD145" s="107"/>
-      <c r="AE145" s="107"/>
-      <c r="AF145" s="107"/>
-      <c r="AG145" s="107"/>
-      <c r="AH145" s="107"/>
-      <c r="AI145" s="108"/>
-      <c r="AJ145" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK145" s="110"/>
-      <c r="AL145" s="110"/>
-      <c r="AM145" s="110"/>
-      <c r="AN145" s="110"/>
-      <c r="AO145" s="110"/>
-      <c r="AP145" s="110"/>
-      <c r="AQ145" s="110"/>
-      <c r="AR145" s="110"/>
-      <c r="AS145" s="110"/>
-      <c r="AT145" s="110"/>
-      <c r="AU145" s="111"/>
-      <c r="AV145" s="6"/>
-      <c r="AW145" s="7"/>
-      <c r="AY145" s="101"/>
-    </row>
-    <row r="146" spans="1:51" ht="13.5" customHeight="1">
+      <c r="E145" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="2"/>
+      <c r="X145" s="2"/>
+      <c r="Y145" s="2"/>
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
+      <c r="AB145" s="2"/>
+      <c r="AC145" s="2"/>
+      <c r="AD145" s="2"/>
+      <c r="AE145" s="2"/>
+      <c r="AF145" s="2"/>
+      <c r="AG145" s="2"/>
+      <c r="AH145" s="2"/>
+      <c r="AI145" s="2"/>
+      <c r="AJ145" s="2"/>
+      <c r="AK145" s="2"/>
+      <c r="AL145" s="2"/>
+      <c r="AM145" s="2"/>
+      <c r="AN145" s="2"/>
+      <c r="AO145" s="2"/>
+      <c r="AP145" s="2"/>
+      <c r="AQ145" s="2"/>
+      <c r="AR145" s="2"/>
+      <c r="AS145" s="2"/>
+      <c r="AT145" s="2"/>
+      <c r="AU145" s="2"/>
+      <c r="AV145" s="2"/>
+      <c r="AW145" s="2"/>
+      <c r="AX145" s="2"/>
+    </row>
+    <row r="146" spans="1:50" ht="13.5" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="90">
-        <v>3</v>
-      </c>
-      <c r="F146" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="G146" s="92"/>
-      <c r="H146" s="92"/>
-      <c r="I146" s="93"/>
-      <c r="J146" s="93"/>
-      <c r="K146" s="93"/>
-      <c r="L146" s="93"/>
-      <c r="M146" s="94"/>
-      <c r="N146" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="O146" s="92"/>
-      <c r="P146" s="92"/>
-      <c r="Q146" s="93"/>
-      <c r="R146" s="93"/>
-      <c r="S146" s="93"/>
-      <c r="T146" s="93"/>
-      <c r="U146" s="93"/>
-      <c r="V146" s="96"/>
-      <c r="W146" s="96"/>
-      <c r="X146" s="96"/>
-      <c r="Y146" s="96"/>
-      <c r="Z146" s="96"/>
-      <c r="AA146" s="96"/>
-      <c r="AB146" s="96"/>
-      <c r="AC146" s="96"/>
-      <c r="AD146" s="96"/>
-      <c r="AE146" s="96"/>
-      <c r="AF146" s="96"/>
-      <c r="AG146" s="96"/>
-      <c r="AH146" s="96"/>
-      <c r="AI146" s="97"/>
-      <c r="AJ146" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK146" s="99"/>
-      <c r="AL146" s="99"/>
-      <c r="AM146" s="99"/>
-      <c r="AN146" s="99"/>
-      <c r="AO146" s="99"/>
-      <c r="AP146" s="99"/>
-      <c r="AQ146" s="99"/>
-      <c r="AR146" s="99"/>
-      <c r="AS146" s="99"/>
-      <c r="AT146" s="99"/>
-      <c r="AU146" s="100"/>
+      <c r="E146" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" s="87"/>
+      <c r="H146" s="87"/>
+      <c r="I146" s="87"/>
+      <c r="J146" s="87"/>
+      <c r="K146" s="87"/>
+      <c r="L146" s="87"/>
+      <c r="M146" s="87"/>
+      <c r="N146" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="O146" s="87"/>
+      <c r="P146" s="87"/>
+      <c r="Q146" s="87"/>
+      <c r="R146" s="87"/>
+      <c r="S146" s="87"/>
+      <c r="T146" s="87"/>
+      <c r="U146" s="87"/>
+      <c r="V146" s="88"/>
+      <c r="W146" s="88"/>
+      <c r="X146" s="88"/>
+      <c r="Y146" s="88"/>
+      <c r="Z146" s="88"/>
+      <c r="AA146" s="88"/>
+      <c r="AB146" s="88"/>
+      <c r="AC146" s="88"/>
+      <c r="AD146" s="88"/>
+      <c r="AE146" s="88"/>
+      <c r="AF146" s="88"/>
+      <c r="AG146" s="88"/>
+      <c r="AH146" s="88"/>
+      <c r="AI146" s="88"/>
+      <c r="AJ146" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK146" s="88"/>
+      <c r="AL146" s="88"/>
+      <c r="AM146" s="88"/>
+      <c r="AN146" s="88"/>
+      <c r="AO146" s="88"/>
+      <c r="AP146" s="88"/>
+      <c r="AQ146" s="88"/>
+      <c r="AR146" s="88"/>
+      <c r="AS146" s="88"/>
+      <c r="AT146" s="88"/>
+      <c r="AU146" s="89"/>
       <c r="AV146" s="2"/>
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
     </row>
-    <row r="147" spans="1:51" ht="28.95" customHeight="1">
+    <row r="147" spans="1:50" ht="28.95" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2"/>
-      <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
-      <c r="AA147" s="2"/>
-      <c r="AB147" s="2"/>
-      <c r="AC147" s="2"/>
-      <c r="AD147" s="2"/>
-      <c r="AE147" s="2"/>
-      <c r="AF147" s="2"/>
-      <c r="AG147" s="2"/>
-      <c r="AH147" s="2"/>
-      <c r="AI147" s="2"/>
-      <c r="AJ147" s="2"/>
-      <c r="AK147" s="2"/>
-      <c r="AL147" s="2"/>
-      <c r="AM147" s="2"/>
-      <c r="AN147" s="2"/>
-      <c r="AO147" s="2"/>
-      <c r="AP147" s="2"/>
-      <c r="AQ147" s="2"/>
-      <c r="AR147" s="2"/>
-      <c r="AS147" s="2"/>
-      <c r="AT147" s="2"/>
-      <c r="AU147" s="2"/>
+      <c r="E147" s="90">
+        <v>1</v>
+      </c>
+      <c r="F147" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G147" s="92"/>
+      <c r="H147" s="92"/>
+      <c r="I147" s="93"/>
+      <c r="J147" s="93"/>
+      <c r="K147" s="93"/>
+      <c r="L147" s="93"/>
+      <c r="M147" s="94"/>
+      <c r="N147" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="O147" s="92"/>
+      <c r="P147" s="92"/>
+      <c r="Q147" s="93"/>
+      <c r="R147" s="93"/>
+      <c r="S147" s="93"/>
+      <c r="T147" s="93"/>
+      <c r="U147" s="93"/>
+      <c r="V147" s="96"/>
+      <c r="W147" s="96"/>
+      <c r="X147" s="96"/>
+      <c r="Y147" s="96"/>
+      <c r="Z147" s="96"/>
+      <c r="AA147" s="96"/>
+      <c r="AB147" s="96"/>
+      <c r="AC147" s="96"/>
+      <c r="AD147" s="96"/>
+      <c r="AE147" s="96"/>
+      <c r="AF147" s="96"/>
+      <c r="AG147" s="96"/>
+      <c r="AH147" s="96"/>
+      <c r="AI147" s="97"/>
+      <c r="AJ147" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK147" s="99"/>
+      <c r="AL147" s="99"/>
+      <c r="AM147" s="99"/>
+      <c r="AN147" s="99"/>
+      <c r="AO147" s="99"/>
+      <c r="AP147" s="99"/>
+      <c r="AQ147" s="99"/>
+      <c r="AR147" s="99"/>
+      <c r="AS147" s="99"/>
+      <c r="AT147" s="99"/>
+      <c r="AU147" s="100"/>
       <c r="AV147" s="2"/>
       <c r="AW147" s="2"/>
       <c r="AX147" s="2"/>
     </row>
-    <row r="148" spans="1:51" ht="13.5" customHeight="1">
+    <row r="148" spans="1:50" ht="13.5" customHeight="1">
       <c r="A148" s="3"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-      <c r="T148" s="6"/>
-      <c r="U148" s="6"/>
-      <c r="V148" s="6"/>
-      <c r="W148" s="6"/>
-      <c r="X148" s="6"/>
-      <c r="Y148" s="6"/>
-      <c r="Z148" s="6"/>
-      <c r="AA148" s="6"/>
-      <c r="AB148" s="6"/>
-      <c r="AC148" s="6"/>
-      <c r="AD148" s="6"/>
-      <c r="AE148" s="2"/>
-      <c r="AF148" s="6"/>
-      <c r="AG148" s="6"/>
-      <c r="AH148" s="6"/>
-      <c r="AI148" s="6"/>
-      <c r="AJ148" s="6"/>
-      <c r="AK148" s="6"/>
-      <c r="AL148" s="6"/>
-      <c r="AM148" s="6"/>
-      <c r="AN148" s="6"/>
-      <c r="AO148" s="6"/>
-      <c r="AP148" s="6"/>
-      <c r="AQ148" s="6"/>
-      <c r="AR148" s="6"/>
-      <c r="AS148" s="6"/>
-      <c r="AT148" s="6"/>
-      <c r="AU148" s="6"/>
+      <c r="E148" s="101">
+        <v>2</v>
+      </c>
+      <c r="F148" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="G148" s="103"/>
+      <c r="H148" s="103"/>
+      <c r="I148" s="104"/>
+      <c r="J148" s="104"/>
+      <c r="K148" s="104"/>
+      <c r="L148" s="104"/>
+      <c r="M148" s="105"/>
+      <c r="N148" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="O148" s="103"/>
+      <c r="P148" s="103"/>
+      <c r="Q148" s="104"/>
+      <c r="R148" s="104"/>
+      <c r="S148" s="104"/>
+      <c r="T148" s="104"/>
+      <c r="U148" s="104"/>
+      <c r="V148" s="106"/>
+      <c r="W148" s="106"/>
+      <c r="X148" s="106"/>
+      <c r="Y148" s="106"/>
+      <c r="Z148" s="106"/>
+      <c r="AA148" s="106"/>
+      <c r="AB148" s="106"/>
+      <c r="AC148" s="106"/>
+      <c r="AD148" s="106"/>
+      <c r="AE148" s="106"/>
+      <c r="AF148" s="106"/>
+      <c r="AG148" s="106"/>
+      <c r="AH148" s="106"/>
+      <c r="AI148" s="107"/>
+      <c r="AJ148" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK148" s="109"/>
+      <c r="AL148" s="109"/>
+      <c r="AM148" s="109"/>
+      <c r="AN148" s="109"/>
+      <c r="AO148" s="109"/>
+      <c r="AP148" s="109"/>
+      <c r="AQ148" s="109"/>
+      <c r="AR148" s="109"/>
+      <c r="AS148" s="109"/>
+      <c r="AT148" s="109"/>
+      <c r="AU148" s="110"/>
       <c r="AV148" s="6"/>
       <c r="AW148" s="7"/>
     </row>
-    <row r="149" spans="1:51" ht="13.5" customHeight="1">
+    <row r="149" spans="1:50" ht="13.5" customHeight="1">
       <c r="A149" s="3"/>
-      <c r="D149" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E149" s="112"/>
-      <c r="F149" s="113"/>
-      <c r="G149" s="114"/>
-      <c r="H149" s="114"/>
-      <c r="I149" s="114"/>
-      <c r="J149" s="114"/>
-      <c r="K149" s="114"/>
-      <c r="L149" s="114"/>
-      <c r="M149" s="114"/>
-      <c r="N149" s="114"/>
-      <c r="O149" s="114"/>
-      <c r="P149" s="114"/>
-      <c r="Q149" s="114"/>
-      <c r="R149" s="114"/>
-      <c r="S149" s="114"/>
-      <c r="T149" s="114"/>
-      <c r="U149" s="114"/>
-      <c r="V149" s="114"/>
-      <c r="W149" s="114"/>
-      <c r="X149" s="114"/>
-      <c r="Y149" s="114"/>
-      <c r="Z149" s="114"/>
-      <c r="AA149" s="114"/>
-      <c r="AB149" s="114"/>
-      <c r="AC149" s="114"/>
-      <c r="AD149" s="114"/>
-      <c r="AE149" s="114"/>
-      <c r="AF149" s="114"/>
-      <c r="AG149" s="114"/>
-      <c r="AH149" s="114"/>
-      <c r="AI149" s="114"/>
-      <c r="AJ149" s="114"/>
-      <c r="AK149" s="114"/>
-      <c r="AL149" s="114"/>
-      <c r="AM149" s="114"/>
-      <c r="AN149" s="114"/>
-      <c r="AO149" s="114"/>
-      <c r="AP149" s="114"/>
-      <c r="AQ149" s="114"/>
-      <c r="AR149" s="114"/>
-      <c r="AS149" s="114"/>
-      <c r="AT149" s="114"/>
-      <c r="AU149" s="114"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="90">
+        <v>3</v>
+      </c>
+      <c r="F149" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" s="92"/>
+      <c r="H149" s="92"/>
+      <c r="I149" s="93"/>
+      <c r="J149" s="93"/>
+      <c r="K149" s="93"/>
+      <c r="L149" s="93"/>
+      <c r="M149" s="94"/>
+      <c r="N149" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="O149" s="92"/>
+      <c r="P149" s="92"/>
+      <c r="Q149" s="93"/>
+      <c r="R149" s="93"/>
+      <c r="S149" s="93"/>
+      <c r="T149" s="93"/>
+      <c r="U149" s="93"/>
+      <c r="V149" s="96"/>
+      <c r="W149" s="96"/>
+      <c r="X149" s="96"/>
+      <c r="Y149" s="96"/>
+      <c r="Z149" s="96"/>
+      <c r="AA149" s="96"/>
+      <c r="AB149" s="96"/>
+      <c r="AC149" s="96"/>
+      <c r="AD149" s="96"/>
+      <c r="AE149" s="96"/>
+      <c r="AF149" s="96"/>
+      <c r="AG149" s="96"/>
+      <c r="AH149" s="96"/>
+      <c r="AI149" s="97"/>
+      <c r="AJ149" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK149" s="99"/>
+      <c r="AL149" s="99"/>
+      <c r="AM149" s="99"/>
+      <c r="AN149" s="99"/>
+      <c r="AO149" s="99"/>
+      <c r="AP149" s="99"/>
+      <c r="AQ149" s="99"/>
+      <c r="AR149" s="99"/>
+      <c r="AS149" s="99"/>
+      <c r="AT149" s="99"/>
+      <c r="AU149" s="100"/>
       <c r="AV149" s="6"/>
       <c r="AW149" s="7"/>
     </row>
-    <row r="150" spans="1:51" ht="13.5" customHeight="1">
+    <row r="150" spans="1:50" ht="13.5" customHeight="1">
       <c r="A150" s="3"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="115"/>
-      <c r="F150" s="116"/>
-      <c r="G150" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="H150" s="116"/>
-      <c r="I150" s="116"/>
-      <c r="J150" s="116"/>
-      <c r="K150" s="117"/>
-      <c r="L150" s="118"/>
-      <c r="M150" s="119"/>
-      <c r="N150" s="119"/>
-      <c r="O150" s="119"/>
-      <c r="P150" s="119"/>
-      <c r="Q150" s="119"/>
-      <c r="R150" s="119"/>
-      <c r="S150" s="119"/>
-      <c r="T150" s="119"/>
-      <c r="U150" s="119"/>
-      <c r="V150" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="W150" s="119"/>
-      <c r="X150" s="119"/>
-      <c r="Y150" s="119"/>
-      <c r="Z150" s="119"/>
-      <c r="AA150" s="119"/>
-      <c r="AB150" s="119"/>
-      <c r="AC150" s="119"/>
-      <c r="AD150" s="119"/>
-      <c r="AE150" s="119"/>
-      <c r="AF150" s="119"/>
-      <c r="AG150" s="119"/>
-      <c r="AH150" s="119"/>
-      <c r="AI150" s="119"/>
-      <c r="AJ150" s="119"/>
-      <c r="AK150" s="119"/>
-      <c r="AL150" s="119"/>
-      <c r="AM150" s="119"/>
-      <c r="AN150" s="119"/>
-      <c r="AO150" s="119"/>
-      <c r="AP150" s="119"/>
-      <c r="AQ150" s="119"/>
-      <c r="AR150" s="119"/>
-      <c r="AS150" s="119"/>
-      <c r="AT150" s="119"/>
-      <c r="AU150" s="120"/>
-      <c r="AV150" s="6"/>
-      <c r="AW150" s="7"/>
-    </row>
-    <row r="151" spans="1:51" ht="13.5" customHeight="1">
+      <c r="D150" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="2"/>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
+      <c r="Z150" s="2"/>
+      <c r="AA150" s="2"/>
+      <c r="AB150" s="2"/>
+      <c r="AC150" s="2"/>
+      <c r="AD150" s="2"/>
+      <c r="AE150" s="2"/>
+      <c r="AF150" s="2"/>
+      <c r="AG150" s="2"/>
+      <c r="AH150" s="2"/>
+      <c r="AI150" s="2"/>
+      <c r="AJ150" s="2"/>
+      <c r="AK150" s="2"/>
+      <c r="AL150" s="2"/>
+      <c r="AM150" s="2"/>
+      <c r="AN150" s="2"/>
+      <c r="AO150" s="2"/>
+      <c r="AP150" s="2"/>
+      <c r="AQ150" s="2"/>
+      <c r="AR150" s="2"/>
+      <c r="AS150" s="2"/>
+      <c r="AT150" s="2"/>
+      <c r="AU150" s="2"/>
+      <c r="AV150" s="2"/>
+      <c r="AW150" s="2"/>
+      <c r="AX150" s="2"/>
+    </row>
+    <row r="151" spans="1:50" ht="13.5" customHeight="1">
       <c r="A151" s="3"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="121"/>
-      <c r="F151" s="122"/>
-      <c r="G151" s="122"/>
-      <c r="H151" s="122"/>
-      <c r="I151" s="122"/>
-      <c r="J151" s="122"/>
-      <c r="K151" s="123"/>
-      <c r="L151" s="124"/>
-      <c r="M151" s="93"/>
-      <c r="N151" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="O151" s="93"/>
-      <c r="P151" s="93"/>
-      <c r="Q151" s="96"/>
-      <c r="R151" s="96"/>
-      <c r="S151" s="96"/>
-      <c r="T151" s="96"/>
-      <c r="U151" s="96"/>
-      <c r="V151" s="96"/>
-      <c r="W151" s="96"/>
-      <c r="X151" s="96"/>
-      <c r="Y151" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z151" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA151" s="96"/>
-      <c r="AB151" s="96"/>
-      <c r="AC151" s="96"/>
-      <c r="AD151" s="96"/>
-      <c r="AE151" s="96"/>
-      <c r="AF151" s="96"/>
-      <c r="AG151" s="96"/>
-      <c r="AH151" s="96"/>
-      <c r="AI151" s="96"/>
-      <c r="AJ151" s="96"/>
-      <c r="AK151" s="96"/>
-      <c r="AL151" s="96"/>
-      <c r="AM151" s="96"/>
-      <c r="AN151" s="96"/>
-      <c r="AO151" s="96"/>
-      <c r="AP151" s="96"/>
-      <c r="AQ151" s="96"/>
-      <c r="AR151" s="96"/>
-      <c r="AS151" s="96"/>
-      <c r="AT151" s="96"/>
-      <c r="AU151" s="97"/>
+      <c r="E151" s="111"/>
+      <c r="F151" s="112"/>
+      <c r="G151" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151" s="112"/>
+      <c r="I151" s="112"/>
+      <c r="J151" s="112"/>
+      <c r="K151" s="113"/>
+      <c r="L151" s="114"/>
+      <c r="M151" s="115"/>
+      <c r="N151" s="115"/>
+      <c r="O151" s="115"/>
+      <c r="P151" s="115"/>
+      <c r="Q151" s="115"/>
+      <c r="R151" s="115"/>
+      <c r="S151" s="115"/>
+      <c r="T151" s="115"/>
+      <c r="U151" s="115"/>
+      <c r="V151" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="W151" s="115"/>
+      <c r="X151" s="115"/>
+      <c r="Y151" s="115"/>
+      <c r="Z151" s="115"/>
+      <c r="AA151" s="115"/>
+      <c r="AB151" s="115"/>
+      <c r="AC151" s="115"/>
+      <c r="AD151" s="115"/>
+      <c r="AE151" s="115"/>
+      <c r="AF151" s="115"/>
+      <c r="AG151" s="115"/>
+      <c r="AH151" s="115"/>
+      <c r="AI151" s="115"/>
+      <c r="AJ151" s="115"/>
+      <c r="AK151" s="115"/>
+      <c r="AL151" s="115"/>
+      <c r="AM151" s="115"/>
+      <c r="AN151" s="115"/>
+      <c r="AO151" s="115"/>
+      <c r="AP151" s="115"/>
+      <c r="AQ151" s="115"/>
+      <c r="AR151" s="115"/>
+      <c r="AS151" s="115"/>
+      <c r="AT151" s="115"/>
+      <c r="AU151" s="116"/>
       <c r="AV151" s="6"/>
       <c r="AW151" s="7"/>
     </row>
-    <row r="152" spans="1:51" ht="13.5" customHeight="1">
+    <row r="152" spans="1:50" ht="13.5" customHeight="1">
       <c r="A152" s="3"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="125"/>
-      <c r="F152" s="126"/>
-      <c r="G152" s="126"/>
-      <c r="H152" s="126"/>
-      <c r="I152" s="126"/>
-      <c r="J152" s="126"/>
-      <c r="K152" s="127"/>
-      <c r="L152" s="128"/>
-      <c r="M152" s="129"/>
-      <c r="N152" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="O152" s="129"/>
-      <c r="P152" s="129"/>
-      <c r="Q152" s="130"/>
-      <c r="R152" s="130"/>
-      <c r="S152" s="130"/>
-      <c r="T152" s="130"/>
-      <c r="U152" s="130"/>
-      <c r="V152" s="130"/>
-      <c r="W152" s="130"/>
-      <c r="X152" s="130"/>
-      <c r="Y152" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z152" s="130" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA152" s="130"/>
-      <c r="AB152" s="130"/>
-      <c r="AC152" s="130"/>
-      <c r="AD152" s="130"/>
-      <c r="AE152" s="130"/>
-      <c r="AF152" s="130"/>
-      <c r="AG152" s="130"/>
-      <c r="AH152" s="130"/>
-      <c r="AI152" s="130"/>
-      <c r="AJ152" s="130"/>
-      <c r="AK152" s="130"/>
-      <c r="AL152" s="130"/>
-      <c r="AM152" s="130"/>
-      <c r="AN152" s="130"/>
-      <c r="AO152" s="130"/>
-      <c r="AP152" s="130"/>
-      <c r="AQ152" s="130"/>
-      <c r="AR152" s="130"/>
-      <c r="AS152" s="130"/>
-      <c r="AT152" s="130"/>
-      <c r="AU152" s="131"/>
+      <c r="E152" s="117"/>
+      <c r="F152" s="118"/>
+      <c r="G152" s="118"/>
+      <c r="H152" s="118"/>
+      <c r="I152" s="118"/>
+      <c r="J152" s="118"/>
+      <c r="K152" s="119"/>
+      <c r="L152" s="120"/>
+      <c r="M152" s="93"/>
+      <c r="N152" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="O152" s="93"/>
+      <c r="P152" s="93"/>
+      <c r="Q152" s="96"/>
+      <c r="R152" s="96"/>
+      <c r="S152" s="96"/>
+      <c r="T152" s="96"/>
+      <c r="U152" s="96"/>
+      <c r="V152" s="96"/>
+      <c r="W152" s="96"/>
+      <c r="X152" s="96"/>
+      <c r="Y152" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z152" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA152" s="96"/>
+      <c r="AB152" s="96"/>
+      <c r="AC152" s="96"/>
+      <c r="AD152" s="96"/>
+      <c r="AE152" s="96"/>
+      <c r="AF152" s="96"/>
+      <c r="AG152" s="96"/>
+      <c r="AH152" s="96"/>
+      <c r="AI152" s="96"/>
+      <c r="AJ152" s="96"/>
+      <c r="AK152" s="96"/>
+      <c r="AL152" s="96"/>
+      <c r="AM152" s="96"/>
+      <c r="AN152" s="96"/>
+      <c r="AO152" s="96"/>
+      <c r="AP152" s="96"/>
+      <c r="AQ152" s="96"/>
+      <c r="AR152" s="96"/>
+      <c r="AS152" s="96"/>
+      <c r="AT152" s="96"/>
+      <c r="AU152" s="97"/>
       <c r="AV152" s="6"/>
       <c r="AW152" s="7"/>
     </row>
-    <row r="153" spans="1:51" ht="13.5" customHeight="1">
+    <row r="153" spans="1:50" ht="13.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="199" t="s">
-        <v>82</v>
-      </c>
-      <c r="F153" s="200"/>
-      <c r="G153" s="200"/>
-      <c r="H153" s="200"/>
-      <c r="I153" s="200"/>
-      <c r="J153" s="200"/>
-      <c r="K153" s="201"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="122"/>
+      <c r="G153" s="122"/>
+      <c r="H153" s="122"/>
+      <c r="I153" s="122"/>
+      <c r="J153" s="122"/>
+      <c r="K153" s="123"/>
       <c r="L153" s="124"/>
-      <c r="M153" s="93"/>
-      <c r="N153" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="O153" s="93"/>
-      <c r="P153" s="93"/>
-      <c r="Q153" s="96"/>
-      <c r="R153" s="96"/>
-      <c r="S153" s="96"/>
-      <c r="T153" s="96"/>
-      <c r="U153" s="96"/>
-      <c r="V153" s="96"/>
-      <c r="W153" s="96"/>
-      <c r="X153" s="96"/>
-      <c r="Y153" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z153" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA153" s="96"/>
-      <c r="AB153" s="96"/>
-      <c r="AC153" s="96"/>
-      <c r="AD153" s="96"/>
-      <c r="AE153" s="96"/>
-      <c r="AF153" s="96"/>
-      <c r="AG153" s="96"/>
-      <c r="AH153" s="96"/>
-      <c r="AI153" s="96"/>
-      <c r="AJ153" s="96"/>
-      <c r="AK153" s="96"/>
-      <c r="AL153" s="96"/>
-      <c r="AM153" s="96"/>
-      <c r="AN153" s="96"/>
-      <c r="AO153" s="96"/>
-      <c r="AP153" s="96"/>
-      <c r="AQ153" s="96"/>
-      <c r="AR153" s="96"/>
-      <c r="AS153" s="96"/>
-      <c r="AT153" s="96"/>
-      <c r="AU153" s="97"/>
+      <c r="M153" s="125"/>
+      <c r="N153" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="O153" s="125"/>
+      <c r="P153" s="125"/>
+      <c r="Q153" s="126"/>
+      <c r="R153" s="126"/>
+      <c r="S153" s="126"/>
+      <c r="T153" s="126"/>
+      <c r="U153" s="126"/>
+      <c r="V153" s="126"/>
+      <c r="W153" s="126"/>
+      <c r="X153" s="126"/>
+      <c r="Y153" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z153" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA153" s="126"/>
+      <c r="AB153" s="126"/>
+      <c r="AC153" s="126"/>
+      <c r="AD153" s="126"/>
+      <c r="AE153" s="126"/>
+      <c r="AF153" s="126"/>
+      <c r="AG153" s="126"/>
+      <c r="AH153" s="126"/>
+      <c r="AI153" s="126"/>
+      <c r="AJ153" s="126"/>
+      <c r="AK153" s="126"/>
+      <c r="AL153" s="126"/>
+      <c r="AM153" s="126"/>
+      <c r="AN153" s="126"/>
+      <c r="AO153" s="126"/>
+      <c r="AP153" s="126"/>
+      <c r="AQ153" s="126"/>
+      <c r="AR153" s="126"/>
+      <c r="AS153" s="126"/>
+      <c r="AT153" s="126"/>
+      <c r="AU153" s="127"/>
       <c r="AV153" s="6"/>
       <c r="AW153" s="7"/>
     </row>
-    <row r="154" spans="1:51" ht="13.5" customHeight="1">
+    <row r="154" spans="1:50" ht="13.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="202"/>
-      <c r="F154" s="203"/>
-      <c r="G154" s="203"/>
-      <c r="H154" s="203"/>
-      <c r="I154" s="203"/>
-      <c r="J154" s="203"/>
-      <c r="K154" s="204"/>
-      <c r="L154" s="128"/>
-      <c r="M154" s="129"/>
-      <c r="N154" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="O154" s="129"/>
-      <c r="P154" s="129"/>
-      <c r="Q154" s="130"/>
-      <c r="R154" s="130"/>
-      <c r="S154" s="130"/>
-      <c r="T154" s="130"/>
-      <c r="U154" s="130"/>
-      <c r="V154" s="130"/>
-      <c r="W154" s="130"/>
-      <c r="X154" s="130"/>
-      <c r="Y154" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z154" s="130" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA154" s="130"/>
-      <c r="AB154" s="130"/>
-      <c r="AC154" s="130"/>
-      <c r="AD154" s="130"/>
-      <c r="AE154" s="130"/>
-      <c r="AF154" s="130"/>
-      <c r="AG154" s="130"/>
-      <c r="AH154" s="130"/>
-      <c r="AI154" s="130"/>
-      <c r="AJ154" s="130"/>
-      <c r="AK154" s="130"/>
-      <c r="AL154" s="130"/>
-      <c r="AM154" s="130"/>
-      <c r="AN154" s="130"/>
-      <c r="AO154" s="130"/>
-      <c r="AP154" s="130"/>
-      <c r="AQ154" s="130"/>
-      <c r="AR154" s="130"/>
-      <c r="AS154" s="130"/>
-      <c r="AT154" s="130"/>
-      <c r="AU154" s="131"/>
+      <c r="E154" s="117"/>
+      <c r="F154" s="118"/>
+      <c r="G154" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="H154" s="118"/>
+      <c r="I154" s="118"/>
+      <c r="J154" s="118"/>
+      <c r="K154" s="119"/>
+      <c r="L154" s="120"/>
+      <c r="M154" s="93"/>
+      <c r="N154" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="O154" s="93"/>
+      <c r="P154" s="93"/>
+      <c r="Q154" s="96"/>
+      <c r="R154" s="96"/>
+      <c r="S154" s="96"/>
+      <c r="T154" s="96"/>
+      <c r="U154" s="96"/>
+      <c r="V154" s="96"/>
+      <c r="W154" s="96"/>
+      <c r="X154" s="96"/>
+      <c r="Y154" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z154" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA154" s="96"/>
+      <c r="AB154" s="96"/>
+      <c r="AC154" s="96"/>
+      <c r="AD154" s="96"/>
+      <c r="AE154" s="96"/>
+      <c r="AF154" s="96"/>
+      <c r="AG154" s="96"/>
+      <c r="AH154" s="96"/>
+      <c r="AI154" s="96"/>
+      <c r="AJ154" s="96"/>
+      <c r="AK154" s="96"/>
+      <c r="AL154" s="96"/>
+      <c r="AM154" s="96"/>
+      <c r="AN154" s="96"/>
+      <c r="AO154" s="96"/>
+      <c r="AP154" s="96"/>
+      <c r="AQ154" s="96"/>
+      <c r="AR154" s="96"/>
+      <c r="AS154" s="96"/>
+      <c r="AT154" s="96"/>
+      <c r="AU154" s="97"/>
       <c r="AV154" s="6"/>
       <c r="AW154" s="7"/>
     </row>
-    <row r="155" spans="1:51" ht="13.5" customHeight="1">
+    <row r="155" spans="1:50" ht="13.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="199"/>
-      <c r="F155" s="200"/>
-      <c r="G155" s="200"/>
-      <c r="H155" s="200"/>
-      <c r="I155" s="200"/>
-      <c r="J155" s="200"/>
-      <c r="K155" s="201"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="122"/>
+      <c r="G155" s="122"/>
+      <c r="H155" s="122"/>
+      <c r="I155" s="122"/>
+      <c r="J155" s="122"/>
+      <c r="K155" s="123"/>
       <c r="L155" s="124"/>
-      <c r="M155" s="93"/>
-      <c r="N155" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="O155" s="93"/>
-      <c r="P155" s="93"/>
-      <c r="Q155" s="96"/>
-      <c r="R155" s="96"/>
-      <c r="S155" s="96"/>
-      <c r="T155" s="96"/>
-      <c r="U155" s="96"/>
-      <c r="V155" s="96"/>
-      <c r="W155" s="96"/>
-      <c r="X155" s="96"/>
-      <c r="Y155" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z155" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA155" s="96"/>
-      <c r="AB155" s="96"/>
-      <c r="AC155" s="96"/>
-      <c r="AD155" s="96"/>
-      <c r="AE155" s="96"/>
-      <c r="AF155" s="96"/>
-      <c r="AG155" s="96"/>
-      <c r="AH155" s="96"/>
-      <c r="AI155" s="96"/>
-      <c r="AJ155" s="96"/>
-      <c r="AK155" s="96"/>
-      <c r="AL155" s="96"/>
-      <c r="AM155" s="96"/>
-      <c r="AN155" s="96"/>
-      <c r="AO155" s="96"/>
-      <c r="AP155" s="96"/>
-      <c r="AQ155" s="96"/>
-      <c r="AR155" s="96"/>
-      <c r="AS155" s="96"/>
-      <c r="AT155" s="96"/>
-      <c r="AU155" s="97"/>
+      <c r="M155" s="125"/>
+      <c r="N155" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="O155" s="125"/>
+      <c r="P155" s="125"/>
+      <c r="Q155" s="126"/>
+      <c r="R155" s="126"/>
+      <c r="S155" s="126"/>
+      <c r="T155" s="126"/>
+      <c r="U155" s="126"/>
+      <c r="V155" s="126"/>
+      <c r="W155" s="126"/>
+      <c r="X155" s="126"/>
+      <c r="Y155" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z155" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA155" s="126"/>
+      <c r="AB155" s="126"/>
+      <c r="AC155" s="126"/>
+      <c r="AD155" s="126"/>
+      <c r="AE155" s="126"/>
+      <c r="AF155" s="126"/>
+      <c r="AG155" s="126"/>
+      <c r="AH155" s="126"/>
+      <c r="AI155" s="126"/>
+      <c r="AJ155" s="126"/>
+      <c r="AK155" s="126"/>
+      <c r="AL155" s="126"/>
+      <c r="AM155" s="126"/>
+      <c r="AN155" s="126"/>
+      <c r="AO155" s="126"/>
+      <c r="AP155" s="126"/>
+      <c r="AQ155" s="126"/>
+      <c r="AR155" s="126"/>
+      <c r="AS155" s="126"/>
+      <c r="AT155" s="126"/>
+      <c r="AU155" s="127"/>
       <c r="AV155" s="6"/>
       <c r="AW155" s="7"/>
     </row>
-    <row r="156" spans="1:51" ht="13.5" customHeight="1">
+    <row r="156" spans="1:50" ht="13.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="202"/>
-      <c r="F156" s="203"/>
-      <c r="G156" s="203"/>
-      <c r="H156" s="203"/>
-      <c r="I156" s="203"/>
-      <c r="J156" s="203"/>
-      <c r="K156" s="204"/>
-      <c r="L156" s="128"/>
-      <c r="M156" s="129"/>
-      <c r="N156" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="O156" s="129"/>
-      <c r="P156" s="129"/>
-      <c r="Q156" s="130"/>
-      <c r="R156" s="130"/>
-      <c r="S156" s="130"/>
-      <c r="T156" s="130"/>
-      <c r="U156" s="130"/>
-      <c r="V156" s="130"/>
-      <c r="W156" s="130"/>
-      <c r="X156" s="130"/>
-      <c r="Y156" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z156" s="130" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA156" s="130"/>
-      <c r="AB156" s="130"/>
-      <c r="AC156" s="130"/>
-      <c r="AD156" s="130"/>
-      <c r="AE156" s="130"/>
-      <c r="AF156" s="130"/>
-      <c r="AG156" s="130"/>
-      <c r="AH156" s="130"/>
-      <c r="AI156" s="130"/>
-      <c r="AJ156" s="130"/>
-      <c r="AK156" s="130"/>
-      <c r="AL156" s="130"/>
-      <c r="AM156" s="130"/>
-      <c r="AN156" s="130"/>
-      <c r="AO156" s="130"/>
-      <c r="AP156" s="130"/>
-      <c r="AQ156" s="130"/>
-      <c r="AR156" s="130"/>
-      <c r="AS156" s="130"/>
-      <c r="AT156" s="130"/>
-      <c r="AU156" s="131"/>
+      <c r="E156" s="117"/>
+      <c r="F156" s="118"/>
+      <c r="G156" s="118"/>
+      <c r="H156" s="118"/>
+      <c r="I156" s="118"/>
+      <c r="J156" s="118"/>
+      <c r="K156" s="119"/>
+      <c r="L156" s="120"/>
+      <c r="M156" s="93"/>
+      <c r="N156" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="O156" s="93"/>
+      <c r="P156" s="93"/>
+      <c r="Q156" s="96"/>
+      <c r="R156" s="96"/>
+      <c r="S156" s="96"/>
+      <c r="T156" s="96"/>
+      <c r="U156" s="96"/>
+      <c r="V156" s="96"/>
+      <c r="W156" s="96"/>
+      <c r="X156" s="96"/>
+      <c r="Y156" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z156" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA156" s="96"/>
+      <c r="AB156" s="96"/>
+      <c r="AC156" s="96"/>
+      <c r="AD156" s="96"/>
+      <c r="AE156" s="96"/>
+      <c r="AF156" s="96"/>
+      <c r="AG156" s="96"/>
+      <c r="AH156" s="96"/>
+      <c r="AI156" s="96"/>
+      <c r="AJ156" s="96"/>
+      <c r="AK156" s="96"/>
+      <c r="AL156" s="96"/>
+      <c r="AM156" s="96"/>
+      <c r="AN156" s="96"/>
+      <c r="AO156" s="96"/>
+      <c r="AP156" s="96"/>
+      <c r="AQ156" s="96"/>
+      <c r="AR156" s="96"/>
+      <c r="AS156" s="96"/>
+      <c r="AT156" s="96"/>
+      <c r="AU156" s="97"/>
       <c r="AV156" s="6"/>
       <c r="AW156" s="7"/>
     </row>
-    <row r="157" spans="1:51" ht="13.5" customHeight="1">
+    <row r="157" spans="1:50" ht="13.5" customHeight="1">
       <c r="A157" s="3"/>
       <c r="D157" s="84"/>
-      <c r="E157" s="132"/>
-      <c r="F157" s="83"/>
-      <c r="G157" s="83"/>
-      <c r="H157" s="83"/>
-      <c r="I157" s="83"/>
-      <c r="J157" s="83"/>
-      <c r="K157" s="83"/>
-      <c r="L157" s="83"/>
-      <c r="M157" s="83"/>
-      <c r="N157" s="83"/>
-      <c r="O157" s="83"/>
-      <c r="P157" s="83"/>
-      <c r="Q157" s="83"/>
-      <c r="R157" s="83"/>
-      <c r="S157" s="83"/>
-      <c r="T157" s="83"/>
-      <c r="U157" s="83"/>
-      <c r="V157" s="83"/>
-      <c r="W157" s="83"/>
-      <c r="X157" s="83"/>
-      <c r="Y157" s="83"/>
-      <c r="Z157" s="83"/>
-      <c r="AA157" s="83"/>
-      <c r="AB157" s="83"/>
-      <c r="AC157" s="83"/>
-      <c r="AD157" s="83"/>
-      <c r="AE157" s="15"/>
-      <c r="AF157" s="83"/>
-      <c r="AG157" s="83"/>
-      <c r="AH157" s="83"/>
-      <c r="AI157" s="83"/>
-      <c r="AJ157" s="83"/>
-      <c r="AK157" s="83"/>
-      <c r="AL157" s="83"/>
-      <c r="AM157" s="83"/>
-      <c r="AN157" s="83"/>
-      <c r="AO157" s="83"/>
-      <c r="AP157" s="83"/>
-      <c r="AQ157" s="83"/>
-      <c r="AR157" s="83"/>
-      <c r="AS157" s="83"/>
-      <c r="AT157" s="83"/>
-      <c r="AU157" s="83"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="122"/>
+      <c r="G157" s="122"/>
+      <c r="H157" s="122"/>
+      <c r="I157" s="122"/>
+      <c r="J157" s="122"/>
+      <c r="K157" s="123"/>
+      <c r="L157" s="124"/>
+      <c r="M157" s="125"/>
+      <c r="N157" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="O157" s="125"/>
+      <c r="P157" s="125"/>
+      <c r="Q157" s="126"/>
+      <c r="R157" s="126"/>
+      <c r="S157" s="126"/>
+      <c r="T157" s="126"/>
+      <c r="U157" s="126"/>
+      <c r="V157" s="126"/>
+      <c r="W157" s="126"/>
+      <c r="X157" s="126"/>
+      <c r="Y157" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z157" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA157" s="126"/>
+      <c r="AB157" s="126"/>
+      <c r="AC157" s="126"/>
+      <c r="AD157" s="126"/>
+      <c r="AE157" s="126"/>
+      <c r="AF157" s="126"/>
+      <c r="AG157" s="126"/>
+      <c r="AH157" s="126"/>
+      <c r="AI157" s="126"/>
+      <c r="AJ157" s="126"/>
+      <c r="AK157" s="126"/>
+      <c r="AL157" s="126"/>
+      <c r="AM157" s="126"/>
+      <c r="AN157" s="126"/>
+      <c r="AO157" s="126"/>
+      <c r="AP157" s="126"/>
+      <c r="AQ157" s="126"/>
+      <c r="AR157" s="126"/>
+      <c r="AS157" s="126"/>
+      <c r="AT157" s="126"/>
+      <c r="AU157" s="127"/>
       <c r="AV157" s="6"/>
       <c r="AW157" s="7"/>
     </row>
-    <row r="158" spans="1:51" ht="13.5" customHeight="1">
+    <row r="158" spans="1:50" ht="13.5" customHeight="1">
       <c r="A158" s="3"/>
       <c r="D158" s="84"/>
       <c r="E158" s="84"/>
-      <c r="F158" s="133" t="s">
-        <v>87</v>
+      <c r="F158" s="129" t="s">
+        <v>79</v>
       </c>
       <c r="G158" s="83"/>
       <c r="H158" s="83"/>
@@ -8478,12 +8480,12 @@
       <c r="AV158" s="6"/>
       <c r="AW158" s="7"/>
     </row>
-    <row r="159" spans="1:51" ht="13.5" customHeight="1">
+    <row r="159" spans="1:50" ht="13.5" customHeight="1">
       <c r="A159" s="3"/>
       <c r="D159" s="84"/>
-      <c r="E159" s="132"/>
-      <c r="F159" s="133" t="s">
-        <v>88</v>
+      <c r="E159" s="128"/>
+      <c r="F159" s="129" t="s">
+        <v>80</v>
       </c>
       <c r="G159" s="83"/>
       <c r="H159" s="83"/>
@@ -8529,57 +8531,57 @@
       <c r="AV159" s="6"/>
       <c r="AW159" s="7"/>
     </row>
-    <row r="160" spans="1:51" ht="13.5" customHeight="1">
+    <row r="160" spans="1:50" ht="13.5" customHeight="1">
       <c r="A160" s="3"/>
       <c r="D160" s="84"/>
-      <c r="E160" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="F160" s="135"/>
-      <c r="G160" s="135"/>
-      <c r="H160" s="136"/>
-      <c r="I160" s="205" t="s">
-        <v>90</v>
-      </c>
-      <c r="J160" s="206"/>
-      <c r="K160" s="206"/>
-      <c r="L160" s="206"/>
-      <c r="M160" s="206"/>
-      <c r="N160" s="206"/>
-      <c r="O160" s="206"/>
-      <c r="P160" s="206"/>
-      <c r="Q160" s="206"/>
-      <c r="R160" s="206"/>
-      <c r="S160" s="206"/>
-      <c r="T160" s="206"/>
-      <c r="U160" s="206"/>
-      <c r="V160" s="206"/>
-      <c r="W160" s="206"/>
-      <c r="X160" s="206"/>
-      <c r="Y160" s="206"/>
-      <c r="Z160" s="206"/>
-      <c r="AA160" s="206"/>
-      <c r="AB160" s="206"/>
-      <c r="AC160" s="206"/>
-      <c r="AD160" s="206"/>
-      <c r="AE160" s="206"/>
-      <c r="AF160" s="206"/>
-      <c r="AG160" s="206"/>
-      <c r="AH160" s="206"/>
-      <c r="AI160" s="207"/>
-      <c r="AJ160" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK160" s="206"/>
-      <c r="AL160" s="206"/>
-      <c r="AM160" s="206"/>
-      <c r="AN160" s="206"/>
-      <c r="AO160" s="206"/>
-      <c r="AP160" s="206"/>
-      <c r="AQ160" s="206"/>
-      <c r="AR160" s="206"/>
-      <c r="AS160" s="206"/>
-      <c r="AT160" s="207"/>
+      <c r="E160" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="F160" s="131"/>
+      <c r="G160" s="131"/>
+      <c r="H160" s="132"/>
+      <c r="I160" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="J160" s="149"/>
+      <c r="K160" s="149"/>
+      <c r="L160" s="149"/>
+      <c r="M160" s="149"/>
+      <c r="N160" s="149"/>
+      <c r="O160" s="149"/>
+      <c r="P160" s="149"/>
+      <c r="Q160" s="149"/>
+      <c r="R160" s="149"/>
+      <c r="S160" s="149"/>
+      <c r="T160" s="149"/>
+      <c r="U160" s="149"/>
+      <c r="V160" s="149"/>
+      <c r="W160" s="149"/>
+      <c r="X160" s="149"/>
+      <c r="Y160" s="149"/>
+      <c r="Z160" s="149"/>
+      <c r="AA160" s="149"/>
+      <c r="AB160" s="149"/>
+      <c r="AC160" s="149"/>
+      <c r="AD160" s="149"/>
+      <c r="AE160" s="149"/>
+      <c r="AF160" s="149"/>
+      <c r="AG160" s="149"/>
+      <c r="AH160" s="149"/>
+      <c r="AI160" s="150"/>
+      <c r="AJ160" s="148" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK160" s="149"/>
+      <c r="AL160" s="149"/>
+      <c r="AM160" s="149"/>
+      <c r="AN160" s="149"/>
+      <c r="AO160" s="149"/>
+      <c r="AP160" s="149"/>
+      <c r="AQ160" s="149"/>
+      <c r="AR160" s="149"/>
+      <c r="AS160" s="149"/>
+      <c r="AT160" s="150"/>
       <c r="AU160" s="83"/>
       <c r="AV160" s="6"/>
       <c r="AW160" s="7"/>
@@ -8587,54 +8589,54 @@
     <row r="161" spans="1:50" ht="13.5" customHeight="1">
       <c r="A161" s="3"/>
       <c r="D161" s="84"/>
-      <c r="E161" s="208" t="s">
-        <v>92</v>
-      </c>
-      <c r="F161" s="209"/>
-      <c r="G161" s="209"/>
-      <c r="H161" s="210"/>
-      <c r="I161" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="J161" s="138"/>
-      <c r="K161" s="138"/>
-      <c r="L161" s="138"/>
-      <c r="M161" s="138"/>
-      <c r="N161" s="138"/>
-      <c r="O161" s="138"/>
-      <c r="P161" s="138"/>
-      <c r="Q161" s="138"/>
-      <c r="R161" s="138"/>
-      <c r="S161" s="138"/>
-      <c r="T161" s="138"/>
-      <c r="U161" s="138"/>
-      <c r="V161" s="138"/>
-      <c r="W161" s="138"/>
-      <c r="X161" s="138"/>
-      <c r="Y161" s="138"/>
-      <c r="Z161" s="138"/>
-      <c r="AA161" s="138"/>
-      <c r="AB161" s="138"/>
-      <c r="AC161" s="138"/>
-      <c r="AD161" s="138"/>
-      <c r="AE161" s="139"/>
-      <c r="AF161" s="138"/>
-      <c r="AG161" s="138"/>
-      <c r="AH161" s="138"/>
-      <c r="AI161" s="140"/>
+      <c r="E161" s="151" t="s">
+        <v>84</v>
+      </c>
+      <c r="F161" s="152"/>
+      <c r="G161" s="152"/>
+      <c r="H161" s="153"/>
+      <c r="I161" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="J161" s="134"/>
+      <c r="K161" s="134"/>
+      <c r="L161" s="134"/>
+      <c r="M161" s="134"/>
+      <c r="N161" s="134"/>
+      <c r="O161" s="134"/>
+      <c r="P161" s="134"/>
+      <c r="Q161" s="134"/>
+      <c r="R161" s="134"/>
+      <c r="S161" s="134"/>
+      <c r="T161" s="134"/>
+      <c r="U161" s="134"/>
+      <c r="V161" s="134"/>
+      <c r="W161" s="134"/>
+      <c r="X161" s="134"/>
+      <c r="Y161" s="134"/>
+      <c r="Z161" s="134"/>
+      <c r="AA161" s="134"/>
+      <c r="AB161" s="134"/>
+      <c r="AC161" s="134"/>
+      <c r="AD161" s="134"/>
+      <c r="AE161" s="135"/>
+      <c r="AF161" s="134"/>
+      <c r="AG161" s="134"/>
+      <c r="AH161" s="134"/>
+      <c r="AI161" s="136"/>
       <c r="AJ161" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK161" s="138"/>
-      <c r="AL161" s="138"/>
-      <c r="AM161" s="138"/>
-      <c r="AN161" s="138"/>
-      <c r="AO161" s="138"/>
-      <c r="AP161" s="138"/>
-      <c r="AQ161" s="138"/>
-      <c r="AR161" s="138"/>
-      <c r="AS161" s="138"/>
-      <c r="AT161" s="140"/>
+        <v>95</v>
+      </c>
+      <c r="AK161" s="134"/>
+      <c r="AL161" s="134"/>
+      <c r="AM161" s="134"/>
+      <c r="AN161" s="134"/>
+      <c r="AO161" s="134"/>
+      <c r="AP161" s="134"/>
+      <c r="AQ161" s="134"/>
+      <c r="AR161" s="134"/>
+      <c r="AS161" s="134"/>
+      <c r="AT161" s="136"/>
       <c r="AU161" s="83"/>
       <c r="AV161" s="6"/>
       <c r="AW161" s="7"/>
@@ -8642,54 +8644,54 @@
     <row r="162" spans="1:50" ht="13.5" customHeight="1">
       <c r="A162" s="3"/>
       <c r="D162" s="84"/>
-      <c r="E162" s="196" t="s">
-        <v>95</v>
-      </c>
-      <c r="F162" s="197"/>
-      <c r="G162" s="197"/>
-      <c r="H162" s="198"/>
-      <c r="I162" s="141" t="s">
+      <c r="E162" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="F162" s="155"/>
+      <c r="G162" s="155"/>
+      <c r="H162" s="156"/>
+      <c r="I162" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="J162" s="138"/>
+      <c r="K162" s="138"/>
+      <c r="L162" s="138"/>
+      <c r="M162" s="138"/>
+      <c r="N162" s="138"/>
+      <c r="O162" s="138"/>
+      <c r="P162" s="138"/>
+      <c r="Q162" s="138"/>
+      <c r="R162" s="138"/>
+      <c r="S162" s="138"/>
+      <c r="T162" s="138"/>
+      <c r="U162" s="138"/>
+      <c r="V162" s="138"/>
+      <c r="W162" s="138"/>
+      <c r="X162" s="138"/>
+      <c r="Y162" s="138"/>
+      <c r="Z162" s="138"/>
+      <c r="AA162" s="138"/>
+      <c r="AB162" s="138"/>
+      <c r="AC162" s="138"/>
+      <c r="AD162" s="138"/>
+      <c r="AE162" s="139"/>
+      <c r="AF162" s="138"/>
+      <c r="AG162" s="138"/>
+      <c r="AH162" s="138"/>
+      <c r="AI162" s="140"/>
+      <c r="AJ162" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="J162" s="142"/>
-      <c r="K162" s="142"/>
-      <c r="L162" s="142"/>
-      <c r="M162" s="142"/>
-      <c r="N162" s="142"/>
-      <c r="O162" s="142"/>
-      <c r="P162" s="142"/>
-      <c r="Q162" s="142"/>
-      <c r="R162" s="142"/>
-      <c r="S162" s="142"/>
-      <c r="T162" s="142"/>
-      <c r="U162" s="142"/>
-      <c r="V162" s="142"/>
-      <c r="W162" s="142"/>
-      <c r="X162" s="142"/>
-      <c r="Y162" s="142"/>
-      <c r="Z162" s="142"/>
-      <c r="AA162" s="142"/>
-      <c r="AB162" s="142"/>
-      <c r="AC162" s="142"/>
-      <c r="AD162" s="142"/>
-      <c r="AE162" s="143"/>
-      <c r="AF162" s="142"/>
-      <c r="AG162" s="142"/>
-      <c r="AH162" s="142"/>
-      <c r="AI162" s="144"/>
-      <c r="AJ162" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK162" s="142"/>
-      <c r="AL162" s="142"/>
-      <c r="AM162" s="142"/>
-      <c r="AN162" s="142"/>
-      <c r="AO162" s="142"/>
-      <c r="AP162" s="142"/>
-      <c r="AQ162" s="142"/>
-      <c r="AR162" s="142"/>
-      <c r="AS162" s="142"/>
-      <c r="AT162" s="144"/>
+      <c r="AK162" s="138"/>
+      <c r="AL162" s="138"/>
+      <c r="AM162" s="138"/>
+      <c r="AN162" s="138"/>
+      <c r="AO162" s="138"/>
+      <c r="AP162" s="138"/>
+      <c r="AQ162" s="138"/>
+      <c r="AR162" s="138"/>
+      <c r="AS162" s="138"/>
+      <c r="AT162" s="140"/>
       <c r="AU162" s="83"/>
       <c r="AV162" s="6"/>
       <c r="AW162" s="7"/>
@@ -8728,7 +8730,7 @@
       <c r="AG163" s="83"/>
       <c r="AH163" s="83"/>
       <c r="AI163" s="83"/>
-      <c r="AJ163" s="146"/>
+      <c r="AJ163" s="142"/>
       <c r="AK163" s="83"/>
       <c r="AL163" s="83"/>
       <c r="AM163" s="83"/>
@@ -8777,7 +8779,7 @@
       <c r="AG164" s="83"/>
       <c r="AH164" s="83"/>
       <c r="AI164" s="83"/>
-      <c r="AJ164" s="146"/>
+      <c r="AJ164" s="142"/>
       <c r="AK164" s="83"/>
       <c r="AL164" s="83"/>
       <c r="AM164" s="83"/>
@@ -8826,7 +8828,7 @@
       <c r="AG165" s="83"/>
       <c r="AH165" s="83"/>
       <c r="AI165" s="83"/>
-      <c r="AJ165" s="146"/>
+      <c r="AJ165" s="142"/>
       <c r="AK165" s="83"/>
       <c r="AL165" s="83"/>
       <c r="AM165" s="83"/>
@@ -8875,7 +8877,7 @@
       <c r="AG166" s="83"/>
       <c r="AH166" s="83"/>
       <c r="AI166" s="83"/>
-      <c r="AJ166" s="146"/>
+      <c r="AJ166" s="142"/>
       <c r="AK166" s="83"/>
       <c r="AL166" s="83"/>
       <c r="AM166" s="83"/>
@@ -8924,7 +8926,7 @@
       <c r="AG167" s="83"/>
       <c r="AH167" s="83"/>
       <c r="AI167" s="83"/>
-      <c r="AJ167" s="146"/>
+      <c r="AJ167" s="142"/>
       <c r="AK167" s="83"/>
       <c r="AL167" s="83"/>
       <c r="AM167" s="83"/>
@@ -8975,7 +8977,7 @@
       <c r="AG168" s="83"/>
       <c r="AH168" s="83"/>
       <c r="AI168" s="83"/>
-      <c r="AJ168" s="146"/>
+      <c r="AJ168" s="142"/>
       <c r="AK168" s="83"/>
       <c r="AL168" s="83"/>
       <c r="AM168" s="83"/>
@@ -9024,7 +9026,7 @@
       <c r="AG169" s="83"/>
       <c r="AH169" s="83"/>
       <c r="AI169" s="83"/>
-      <c r="AJ169" s="146"/>
+      <c r="AJ169" s="142"/>
       <c r="AK169" s="83"/>
       <c r="AL169" s="83"/>
       <c r="AM169" s="83"/>
@@ -9040,11 +9042,11 @@
       <c r="AW169" s="7"/>
     </row>
     <row r="170" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A170" s="147"/>
-      <c r="B170" s="148"/>
-      <c r="C170" s="149"/>
+      <c r="A170" s="143"/>
+      <c r="B170" s="144"/>
+      <c r="C170" s="145"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="150"/>
+      <c r="E170" s="146"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -9087,8 +9089,8 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
       <c r="AU170" s="2"/>
-      <c r="AV170" s="149"/>
-      <c r="AW170" s="151"/>
+      <c r="AV170" s="145"/>
+      <c r="AW170" s="147"/>
     </row>
     <row r="171" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="F171" s="2"/>
@@ -9180,12 +9182,60 @@
       <c r="AU172" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="E153:K154"/>
-    <mergeCell ref="E155:K156"/>
-    <mergeCell ref="I160:AI160"/>
-    <mergeCell ref="AJ160:AT160"/>
-    <mergeCell ref="E161:H161"/>
+  <mergeCells count="72">
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="AH43:AL43"/>
+    <mergeCell ref="AM43:AW43"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AT41:AW41"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AT42:AW42"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="A79:I81"/>
+    <mergeCell ref="J79:O81"/>
+    <mergeCell ref="P79:U81"/>
+    <mergeCell ref="V79:Z80"/>
+    <mergeCell ref="AA79:AL80"/>
+    <mergeCell ref="V81:Z81"/>
+    <mergeCell ref="AA81:AG81"/>
+    <mergeCell ref="AH81:AL81"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="AH121:AL121"/>
+    <mergeCell ref="AM121:AW121"/>
+    <mergeCell ref="AO79:AQ79"/>
+    <mergeCell ref="AR79:AS79"/>
+    <mergeCell ref="AT79:AW79"/>
+    <mergeCell ref="AM80:AN80"/>
+    <mergeCell ref="AO80:AQ80"/>
+    <mergeCell ref="AR80:AS80"/>
+    <mergeCell ref="AT80:AW80"/>
+    <mergeCell ref="AM79:AN79"/>
+    <mergeCell ref="AM81:AW81"/>
     <mergeCell ref="E162:H162"/>
     <mergeCell ref="AO119:AQ119"/>
     <mergeCell ref="AR119:AS119"/>
@@ -9202,59 +9252,9 @@
     <mergeCell ref="AM119:AN119"/>
     <mergeCell ref="V121:Z121"/>
     <mergeCell ref="AA121:AG121"/>
-    <mergeCell ref="AH121:AL121"/>
-    <mergeCell ref="AM121:AW121"/>
-    <mergeCell ref="AO79:AQ79"/>
-    <mergeCell ref="AR79:AS79"/>
-    <mergeCell ref="AT79:AW79"/>
-    <mergeCell ref="AM80:AN80"/>
-    <mergeCell ref="AO80:AQ80"/>
-    <mergeCell ref="AR80:AS80"/>
-    <mergeCell ref="AT80:AW80"/>
-    <mergeCell ref="AM79:AN79"/>
-    <mergeCell ref="AM81:AW81"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="A79:I81"/>
-    <mergeCell ref="J79:O81"/>
-    <mergeCell ref="P79:U81"/>
-    <mergeCell ref="V79:Z80"/>
-    <mergeCell ref="AA79:AL80"/>
-    <mergeCell ref="V81:Z81"/>
-    <mergeCell ref="AA81:AG81"/>
-    <mergeCell ref="AH81:AL81"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="AH43:AL43"/>
-    <mergeCell ref="AM43:AW43"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AT41:AW41"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I160:AI160"/>
+    <mergeCell ref="AJ160:AT160"/>
+    <mergeCell ref="E161:H161"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>

--- a/ThietKe/UserInfo.xlsx
+++ b/ThietKe/UserInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\ThietKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0E490-F6D4-4423-8704-22E58FB5AC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5E025-8229-4BF1-BFBE-622A5BE9F300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2BB513B-E136-45D5-80DB-E7F611734C7E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ThongTinUser" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ThongTinUser!$A$1:$AW$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ThongTinUser!$A$1:$AW$168</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -509,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1055,24 +1055,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1474,18 +1463,151 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,153 +1630,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2085,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0E519-75AE-4AC6-9145-7254E8BEAEB1}">
-  <dimension ref="A1:BF172"/>
+  <dimension ref="A1:BF170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="BH17" sqref="BH17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A117" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AU126" sqref="AU126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -2101,187 +2076,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="182" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="182" t="s">
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="183" t="s">
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="189" t="s">
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="160" t="s">
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="149"/>
+      <c r="AJ1" s="149"/>
+      <c r="AK1" s="149"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="157" t="s">
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="158"/>
-      <c r="AQ1" s="159"/>
-      <c r="AR1" s="160" t="s">
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="161"/>
-      <c r="AT1" s="162">
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="181">
         <v>44936</v>
       </c>
-      <c r="AU1" s="163"/>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="164"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="183"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="190"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="177"/>
-      <c r="AK2" s="177"/>
-      <c r="AL2" s="178"/>
-      <c r="AM2" s="165" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="152"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="152"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="153"/>
+      <c r="AM2" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="167"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="169"/>
-      <c r="AR2" s="165" t="s">
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="145"/>
+      <c r="AR2" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="170"/>
-      <c r="AU2" s="171"/>
-      <c r="AV2" s="171"/>
-      <c r="AW2" s="172"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="184"/>
+      <c r="AU2" s="185"/>
+      <c r="AV2" s="185"/>
+      <c r="AW2" s="186"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="191" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="194" t="s">
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="197" t="s">
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="171"/>
+      <c r="AH3" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="198"/>
-      <c r="AJ3" s="198"/>
-      <c r="AK3" s="198"/>
-      <c r="AL3" s="199"/>
-      <c r="AM3" s="194" t="s">
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="173"/>
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="195"/>
-      <c r="AO3" s="195"/>
-      <c r="AP3" s="195"/>
-      <c r="AQ3" s="195"/>
-      <c r="AR3" s="195"/>
-      <c r="AS3" s="195"/>
-      <c r="AT3" s="195"/>
-      <c r="AU3" s="195"/>
-      <c r="AV3" s="195"/>
-      <c r="AW3" s="200"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170"/>
+      <c r="AT3" s="170"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="175"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -3052,187 +3027,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="173" t="s">
+      <c r="A41" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="182" t="s">
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="174"/>
-      <c r="L41" s="174"/>
-      <c r="M41" s="174"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="182" t="s">
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
+      <c r="N41" s="149"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="175"/>
-      <c r="V41" s="183" t="s">
+      <c r="Q41" s="149"/>
+      <c r="R41" s="149"/>
+      <c r="S41" s="149"/>
+      <c r="T41" s="149"/>
+      <c r="U41" s="150"/>
+      <c r="V41" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="184"/>
-      <c r="X41" s="184"/>
-      <c r="Y41" s="184"/>
-      <c r="Z41" s="185"/>
-      <c r="AA41" s="189" t="s">
+      <c r="W41" s="159"/>
+      <c r="X41" s="159"/>
+      <c r="Y41" s="159"/>
+      <c r="Z41" s="160"/>
+      <c r="AA41" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="174"/>
-      <c r="AC41" s="174"/>
-      <c r="AD41" s="174"/>
-      <c r="AE41" s="174"/>
-      <c r="AF41" s="174"/>
-      <c r="AG41" s="174"/>
-      <c r="AH41" s="174"/>
-      <c r="AI41" s="174"/>
-      <c r="AJ41" s="174"/>
-      <c r="AK41" s="174"/>
-      <c r="AL41" s="175"/>
-      <c r="AM41" s="160" t="s">
+      <c r="AB41" s="149"/>
+      <c r="AC41" s="149"/>
+      <c r="AD41" s="149"/>
+      <c r="AE41" s="149"/>
+      <c r="AF41" s="149"/>
+      <c r="AG41" s="149"/>
+      <c r="AH41" s="149"/>
+      <c r="AI41" s="149"/>
+      <c r="AJ41" s="149"/>
+      <c r="AK41" s="149"/>
+      <c r="AL41" s="150"/>
+      <c r="AM41" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="161"/>
-      <c r="AO41" s="157" t="s">
+      <c r="AN41" s="180"/>
+      <c r="AO41" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="158"/>
-      <c r="AQ41" s="159"/>
-      <c r="AR41" s="160" t="s">
+      <c r="AP41" s="177"/>
+      <c r="AQ41" s="178"/>
+      <c r="AR41" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="161"/>
-      <c r="AT41" s="162">
+      <c r="AS41" s="180"/>
+      <c r="AT41" s="181">
         <v>44936</v>
       </c>
-      <c r="AU41" s="163"/>
-      <c r="AV41" s="163"/>
-      <c r="AW41" s="164"/>
+      <c r="AU41" s="182"/>
+      <c r="AV41" s="182"/>
+      <c r="AW41" s="183"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="176"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="177"/>
-      <c r="L42" s="177"/>
-      <c r="M42" s="177"/>
-      <c r="N42" s="177"/>
-      <c r="O42" s="178"/>
-      <c r="P42" s="176"/>
-      <c r="Q42" s="177"/>
-      <c r="R42" s="177"/>
-      <c r="S42" s="177"/>
-      <c r="T42" s="177"/>
-      <c r="U42" s="178"/>
-      <c r="V42" s="186"/>
-      <c r="W42" s="187"/>
-      <c r="X42" s="187"/>
-      <c r="Y42" s="187"/>
-      <c r="Z42" s="188"/>
-      <c r="AA42" s="190"/>
-      <c r="AB42" s="177"/>
-      <c r="AC42" s="177"/>
-      <c r="AD42" s="177"/>
-      <c r="AE42" s="177"/>
-      <c r="AF42" s="177"/>
-      <c r="AG42" s="177"/>
-      <c r="AH42" s="177"/>
-      <c r="AI42" s="177"/>
-      <c r="AJ42" s="177"/>
-      <c r="AK42" s="177"/>
-      <c r="AL42" s="178"/>
-      <c r="AM42" s="165" t="s">
+      <c r="A42" s="151"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="152"/>
+      <c r="O42" s="153"/>
+      <c r="P42" s="151"/>
+      <c r="Q42" s="152"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="152"/>
+      <c r="T42" s="152"/>
+      <c r="U42" s="153"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="162"/>
+      <c r="X42" s="162"/>
+      <c r="Y42" s="162"/>
+      <c r="Z42" s="163"/>
+      <c r="AA42" s="165"/>
+      <c r="AB42" s="152"/>
+      <c r="AC42" s="152"/>
+      <c r="AD42" s="152"/>
+      <c r="AE42" s="152"/>
+      <c r="AF42" s="152"/>
+      <c r="AG42" s="152"/>
+      <c r="AH42" s="152"/>
+      <c r="AI42" s="152"/>
+      <c r="AJ42" s="152"/>
+      <c r="AK42" s="152"/>
+      <c r="AL42" s="153"/>
+      <c r="AM42" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="166"/>
-      <c r="AO42" s="167"/>
-      <c r="AP42" s="168"/>
-      <c r="AQ42" s="169"/>
-      <c r="AR42" s="165" t="s">
+      <c r="AN42" s="147"/>
+      <c r="AO42" s="143"/>
+      <c r="AP42" s="144"/>
+      <c r="AQ42" s="145"/>
+      <c r="AR42" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="166"/>
-      <c r="AT42" s="170"/>
-      <c r="AU42" s="171"/>
-      <c r="AV42" s="171"/>
-      <c r="AW42" s="172"/>
+      <c r="AS42" s="147"/>
+      <c r="AT42" s="184"/>
+      <c r="AU42" s="185"/>
+      <c r="AV42" s="185"/>
+      <c r="AW42" s="186"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="179"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="179"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="180"/>
-      <c r="O43" s="181"/>
-      <c r="P43" s="179"/>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="180"/>
-      <c r="S43" s="180"/>
-      <c r="T43" s="180"/>
-      <c r="U43" s="181"/>
-      <c r="V43" s="191" t="s">
+      <c r="A43" s="154"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="154"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="155"/>
+      <c r="R43" s="155"/>
+      <c r="S43" s="155"/>
+      <c r="T43" s="155"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="192"/>
-      <c r="X43" s="192"/>
-      <c r="Y43" s="192"/>
-      <c r="Z43" s="193"/>
-      <c r="AA43" s="194" t="s">
+      <c r="W43" s="167"/>
+      <c r="X43" s="167"/>
+      <c r="Y43" s="167"/>
+      <c r="Z43" s="168"/>
+      <c r="AA43" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="195"/>
-      <c r="AC43" s="195"/>
-      <c r="AD43" s="195"/>
-      <c r="AE43" s="195"/>
-      <c r="AF43" s="195"/>
-      <c r="AG43" s="196"/>
-      <c r="AH43" s="197" t="s">
+      <c r="AB43" s="170"/>
+      <c r="AC43" s="170"/>
+      <c r="AD43" s="170"/>
+      <c r="AE43" s="170"/>
+      <c r="AF43" s="170"/>
+      <c r="AG43" s="171"/>
+      <c r="AH43" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="198"/>
-      <c r="AJ43" s="198"/>
-      <c r="AK43" s="198"/>
-      <c r="AL43" s="199"/>
-      <c r="AM43" s="194" t="s">
+      <c r="AI43" s="173"/>
+      <c r="AJ43" s="173"/>
+      <c r="AK43" s="173"/>
+      <c r="AL43" s="174"/>
+      <c r="AM43" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="195"/>
-      <c r="AO43" s="195"/>
-      <c r="AP43" s="195"/>
-      <c r="AQ43" s="195"/>
-      <c r="AR43" s="195"/>
-      <c r="AS43" s="195"/>
-      <c r="AT43" s="195"/>
-      <c r="AU43" s="195"/>
-      <c r="AV43" s="195"/>
-      <c r="AW43" s="200"/>
+      <c r="AN43" s="170"/>
+      <c r="AO43" s="170"/>
+      <c r="AP43" s="170"/>
+      <c r="AQ43" s="170"/>
+      <c r="AR43" s="170"/>
+      <c r="AS43" s="170"/>
+      <c r="AT43" s="170"/>
+      <c r="AU43" s="170"/>
+      <c r="AV43" s="170"/>
+      <c r="AW43" s="175"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -5014,187 +4989,187 @@
       <c r="AW78" s="7"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A79" s="173" t="s">
+      <c r="A79" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="174"/>
-      <c r="F79" s="174"/>
-      <c r="G79" s="174"/>
-      <c r="H79" s="174"/>
-      <c r="I79" s="175"/>
-      <c r="J79" s="182" t="s">
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="149"/>
+      <c r="G79" s="149"/>
+      <c r="H79" s="149"/>
+      <c r="I79" s="150"/>
+      <c r="J79" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="174"/>
-      <c r="L79" s="174"/>
-      <c r="M79" s="174"/>
-      <c r="N79" s="174"/>
-      <c r="O79" s="175"/>
-      <c r="P79" s="182" t="s">
+      <c r="K79" s="149"/>
+      <c r="L79" s="149"/>
+      <c r="M79" s="149"/>
+      <c r="N79" s="149"/>
+      <c r="O79" s="150"/>
+      <c r="P79" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="174"/>
-      <c r="R79" s="174"/>
-      <c r="S79" s="174"/>
-      <c r="T79" s="174"/>
-      <c r="U79" s="175"/>
-      <c r="V79" s="183" t="s">
+      <c r="Q79" s="149"/>
+      <c r="R79" s="149"/>
+      <c r="S79" s="149"/>
+      <c r="T79" s="149"/>
+      <c r="U79" s="150"/>
+      <c r="V79" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="W79" s="184"/>
-      <c r="X79" s="184"/>
-      <c r="Y79" s="184"/>
-      <c r="Z79" s="185"/>
-      <c r="AA79" s="189" t="s">
+      <c r="W79" s="159"/>
+      <c r="X79" s="159"/>
+      <c r="Y79" s="159"/>
+      <c r="Z79" s="160"/>
+      <c r="AA79" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="AB79" s="174"/>
-      <c r="AC79" s="174"/>
-      <c r="AD79" s="174"/>
-      <c r="AE79" s="174"/>
-      <c r="AF79" s="174"/>
-      <c r="AG79" s="174"/>
-      <c r="AH79" s="174"/>
-      <c r="AI79" s="174"/>
-      <c r="AJ79" s="174"/>
-      <c r="AK79" s="174"/>
-      <c r="AL79" s="175"/>
-      <c r="AM79" s="160" t="s">
+      <c r="AB79" s="149"/>
+      <c r="AC79" s="149"/>
+      <c r="AD79" s="149"/>
+      <c r="AE79" s="149"/>
+      <c r="AF79" s="149"/>
+      <c r="AG79" s="149"/>
+      <c r="AH79" s="149"/>
+      <c r="AI79" s="149"/>
+      <c r="AJ79" s="149"/>
+      <c r="AK79" s="149"/>
+      <c r="AL79" s="150"/>
+      <c r="AM79" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AN79" s="161"/>
-      <c r="AO79" s="157" t="s">
+      <c r="AN79" s="180"/>
+      <c r="AO79" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="AP79" s="158"/>
-      <c r="AQ79" s="159"/>
-      <c r="AR79" s="160" t="s">
+      <c r="AP79" s="177"/>
+      <c r="AQ79" s="178"/>
+      <c r="AR79" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="AS79" s="161"/>
-      <c r="AT79" s="162">
+      <c r="AS79" s="180"/>
+      <c r="AT79" s="181">
         <v>44936</v>
       </c>
-      <c r="AU79" s="163"/>
-      <c r="AV79" s="163"/>
-      <c r="AW79" s="164"/>
+      <c r="AU79" s="182"/>
+      <c r="AV79" s="182"/>
+      <c r="AW79" s="183"/>
     </row>
     <row r="80" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A80" s="176"/>
-      <c r="B80" s="177"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="177"/>
-      <c r="E80" s="177"/>
-      <c r="F80" s="177"/>
-      <c r="G80" s="177"/>
-      <c r="H80" s="177"/>
-      <c r="I80" s="178"/>
-      <c r="J80" s="176"/>
-      <c r="K80" s="177"/>
-      <c r="L80" s="177"/>
-      <c r="M80" s="177"/>
-      <c r="N80" s="177"/>
-      <c r="O80" s="178"/>
-      <c r="P80" s="176"/>
-      <c r="Q80" s="177"/>
-      <c r="R80" s="177"/>
-      <c r="S80" s="177"/>
-      <c r="T80" s="177"/>
-      <c r="U80" s="178"/>
-      <c r="V80" s="186"/>
-      <c r="W80" s="187"/>
-      <c r="X80" s="187"/>
-      <c r="Y80" s="187"/>
-      <c r="Z80" s="188"/>
-      <c r="AA80" s="190"/>
-      <c r="AB80" s="177"/>
-      <c r="AC80" s="177"/>
-      <c r="AD80" s="177"/>
-      <c r="AE80" s="177"/>
-      <c r="AF80" s="177"/>
-      <c r="AG80" s="177"/>
-      <c r="AH80" s="177"/>
-      <c r="AI80" s="177"/>
-      <c r="AJ80" s="177"/>
-      <c r="AK80" s="177"/>
-      <c r="AL80" s="178"/>
-      <c r="AM80" s="165" t="s">
+      <c r="A80" s="151"/>
+      <c r="B80" s="152"/>
+      <c r="C80" s="152"/>
+      <c r="D80" s="152"/>
+      <c r="E80" s="152"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="152"/>
+      <c r="H80" s="152"/>
+      <c r="I80" s="153"/>
+      <c r="J80" s="151"/>
+      <c r="K80" s="152"/>
+      <c r="L80" s="152"/>
+      <c r="M80" s="152"/>
+      <c r="N80" s="152"/>
+      <c r="O80" s="153"/>
+      <c r="P80" s="151"/>
+      <c r="Q80" s="152"/>
+      <c r="R80" s="152"/>
+      <c r="S80" s="152"/>
+      <c r="T80" s="152"/>
+      <c r="U80" s="153"/>
+      <c r="V80" s="161"/>
+      <c r="W80" s="162"/>
+      <c r="X80" s="162"/>
+      <c r="Y80" s="162"/>
+      <c r="Z80" s="163"/>
+      <c r="AA80" s="165"/>
+      <c r="AB80" s="152"/>
+      <c r="AC80" s="152"/>
+      <c r="AD80" s="152"/>
+      <c r="AE80" s="152"/>
+      <c r="AF80" s="152"/>
+      <c r="AG80" s="152"/>
+      <c r="AH80" s="152"/>
+      <c r="AI80" s="152"/>
+      <c r="AJ80" s="152"/>
+      <c r="AK80" s="152"/>
+      <c r="AL80" s="153"/>
+      <c r="AM80" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AN80" s="166"/>
-      <c r="AO80" s="167"/>
-      <c r="AP80" s="168"/>
-      <c r="AQ80" s="169"/>
-      <c r="AR80" s="165" t="s">
+      <c r="AN80" s="147"/>
+      <c r="AO80" s="143"/>
+      <c r="AP80" s="144"/>
+      <c r="AQ80" s="145"/>
+      <c r="AR80" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AS80" s="166"/>
-      <c r="AT80" s="170"/>
-      <c r="AU80" s="171"/>
-      <c r="AV80" s="171"/>
-      <c r="AW80" s="172"/>
+      <c r="AS80" s="147"/>
+      <c r="AT80" s="184"/>
+      <c r="AU80" s="185"/>
+      <c r="AV80" s="185"/>
+      <c r="AW80" s="186"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A81" s="179"/>
-      <c r="B81" s="180"/>
-      <c r="C81" s="180"/>
-      <c r="D81" s="180"/>
-      <c r="E81" s="180"/>
-      <c r="F81" s="180"/>
-      <c r="G81" s="180"/>
-      <c r="H81" s="180"/>
-      <c r="I81" s="181"/>
-      <c r="J81" s="179"/>
-      <c r="K81" s="180"/>
-      <c r="L81" s="180"/>
-      <c r="M81" s="180"/>
-      <c r="N81" s="180"/>
-      <c r="O81" s="181"/>
-      <c r="P81" s="179"/>
-      <c r="Q81" s="180"/>
-      <c r="R81" s="180"/>
-      <c r="S81" s="180"/>
-      <c r="T81" s="180"/>
-      <c r="U81" s="181"/>
-      <c r="V81" s="191" t="s">
+      <c r="A81" s="154"/>
+      <c r="B81" s="155"/>
+      <c r="C81" s="155"/>
+      <c r="D81" s="155"/>
+      <c r="E81" s="155"/>
+      <c r="F81" s="155"/>
+      <c r="G81" s="155"/>
+      <c r="H81" s="155"/>
+      <c r="I81" s="156"/>
+      <c r="J81" s="154"/>
+      <c r="K81" s="155"/>
+      <c r="L81" s="155"/>
+      <c r="M81" s="155"/>
+      <c r="N81" s="155"/>
+      <c r="O81" s="156"/>
+      <c r="P81" s="154"/>
+      <c r="Q81" s="155"/>
+      <c r="R81" s="155"/>
+      <c r="S81" s="155"/>
+      <c r="T81" s="155"/>
+      <c r="U81" s="156"/>
+      <c r="V81" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="W81" s="192"/>
-      <c r="X81" s="192"/>
-      <c r="Y81" s="192"/>
-      <c r="Z81" s="193"/>
-      <c r="AA81" s="194" t="s">
+      <c r="W81" s="167"/>
+      <c r="X81" s="167"/>
+      <c r="Y81" s="167"/>
+      <c r="Z81" s="168"/>
+      <c r="AA81" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AB81" s="195"/>
-      <c r="AC81" s="195"/>
-      <c r="AD81" s="195"/>
-      <c r="AE81" s="195"/>
-      <c r="AF81" s="195"/>
-      <c r="AG81" s="196"/>
-      <c r="AH81" s="197" t="s">
+      <c r="AB81" s="170"/>
+      <c r="AC81" s="170"/>
+      <c r="AD81" s="170"/>
+      <c r="AE81" s="170"/>
+      <c r="AF81" s="170"/>
+      <c r="AG81" s="171"/>
+      <c r="AH81" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="AI81" s="198"/>
-      <c r="AJ81" s="198"/>
-      <c r="AK81" s="198"/>
-      <c r="AL81" s="199"/>
-      <c r="AM81" s="194" t="s">
+      <c r="AI81" s="173"/>
+      <c r="AJ81" s="173"/>
+      <c r="AK81" s="173"/>
+      <c r="AL81" s="174"/>
+      <c r="AM81" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AN81" s="195"/>
-      <c r="AO81" s="195"/>
-      <c r="AP81" s="195"/>
-      <c r="AQ81" s="195"/>
-      <c r="AR81" s="195"/>
-      <c r="AS81" s="195"/>
-      <c r="AT81" s="195"/>
-      <c r="AU81" s="195"/>
-      <c r="AV81" s="195"/>
-      <c r="AW81" s="200"/>
+      <c r="AN81" s="170"/>
+      <c r="AO81" s="170"/>
+      <c r="AP81" s="170"/>
+      <c r="AQ81" s="170"/>
+      <c r="AR81" s="170"/>
+      <c r="AS81" s="170"/>
+      <c r="AT81" s="170"/>
+      <c r="AU81" s="170"/>
+      <c r="AV81" s="170"/>
+      <c r="AW81" s="175"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A82" s="3"/>
@@ -6311,187 +6286,187 @@
       <c r="AW118" s="7"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A119" s="173" t="s">
+      <c r="A119" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="174"/>
-      <c r="C119" s="174"/>
-      <c r="D119" s="174"/>
-      <c r="E119" s="174"/>
-      <c r="F119" s="174"/>
-      <c r="G119" s="174"/>
-      <c r="H119" s="174"/>
-      <c r="I119" s="175"/>
-      <c r="J119" s="182" t="s">
+      <c r="B119" s="149"/>
+      <c r="C119" s="149"/>
+      <c r="D119" s="149"/>
+      <c r="E119" s="149"/>
+      <c r="F119" s="149"/>
+      <c r="G119" s="149"/>
+      <c r="H119" s="149"/>
+      <c r="I119" s="150"/>
+      <c r="J119" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="K119" s="174"/>
-      <c r="L119" s="174"/>
-      <c r="M119" s="174"/>
-      <c r="N119" s="174"/>
-      <c r="O119" s="175"/>
-      <c r="P119" s="182" t="s">
+      <c r="K119" s="149"/>
+      <c r="L119" s="149"/>
+      <c r="M119" s="149"/>
+      <c r="N119" s="149"/>
+      <c r="O119" s="150"/>
+      <c r="P119" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="Q119" s="174"/>
-      <c r="R119" s="174"/>
-      <c r="S119" s="174"/>
-      <c r="T119" s="174"/>
-      <c r="U119" s="175"/>
-      <c r="V119" s="183" t="s">
+      <c r="Q119" s="149"/>
+      <c r="R119" s="149"/>
+      <c r="S119" s="149"/>
+      <c r="T119" s="149"/>
+      <c r="U119" s="150"/>
+      <c r="V119" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="W119" s="184"/>
-      <c r="X119" s="184"/>
-      <c r="Y119" s="184"/>
-      <c r="Z119" s="185"/>
-      <c r="AA119" s="189" t="s">
+      <c r="W119" s="159"/>
+      <c r="X119" s="159"/>
+      <c r="Y119" s="159"/>
+      <c r="Z119" s="160"/>
+      <c r="AA119" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="AB119" s="174"/>
-      <c r="AC119" s="174"/>
-      <c r="AD119" s="174"/>
-      <c r="AE119" s="174"/>
-      <c r="AF119" s="174"/>
-      <c r="AG119" s="174"/>
-      <c r="AH119" s="174"/>
-      <c r="AI119" s="174"/>
-      <c r="AJ119" s="174"/>
-      <c r="AK119" s="174"/>
-      <c r="AL119" s="175"/>
-      <c r="AM119" s="160" t="s">
+      <c r="AB119" s="149"/>
+      <c r="AC119" s="149"/>
+      <c r="AD119" s="149"/>
+      <c r="AE119" s="149"/>
+      <c r="AF119" s="149"/>
+      <c r="AG119" s="149"/>
+      <c r="AH119" s="149"/>
+      <c r="AI119" s="149"/>
+      <c r="AJ119" s="149"/>
+      <c r="AK119" s="149"/>
+      <c r="AL119" s="150"/>
+      <c r="AM119" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="AN119" s="161"/>
-      <c r="AO119" s="157" t="s">
+      <c r="AN119" s="180"/>
+      <c r="AO119" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="AP119" s="158"/>
-      <c r="AQ119" s="159"/>
-      <c r="AR119" s="160" t="s">
+      <c r="AP119" s="177"/>
+      <c r="AQ119" s="178"/>
+      <c r="AR119" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="AS119" s="161"/>
-      <c r="AT119" s="162">
+      <c r="AS119" s="180"/>
+      <c r="AT119" s="181">
         <v>44936</v>
       </c>
-      <c r="AU119" s="163"/>
-      <c r="AV119" s="163"/>
-      <c r="AW119" s="164"/>
+      <c r="AU119" s="182"/>
+      <c r="AV119" s="182"/>
+      <c r="AW119" s="183"/>
     </row>
     <row r="120" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A120" s="176"/>
-      <c r="B120" s="177"/>
-      <c r="C120" s="177"/>
-      <c r="D120" s="177"/>
-      <c r="E120" s="177"/>
-      <c r="F120" s="177"/>
-      <c r="G120" s="177"/>
-      <c r="H120" s="177"/>
-      <c r="I120" s="178"/>
-      <c r="J120" s="176"/>
-      <c r="K120" s="177"/>
-      <c r="L120" s="177"/>
-      <c r="M120" s="177"/>
-      <c r="N120" s="177"/>
-      <c r="O120" s="178"/>
-      <c r="P120" s="176"/>
-      <c r="Q120" s="177"/>
-      <c r="R120" s="177"/>
-      <c r="S120" s="177"/>
-      <c r="T120" s="177"/>
-      <c r="U120" s="178"/>
-      <c r="V120" s="186"/>
-      <c r="W120" s="187"/>
-      <c r="X120" s="187"/>
-      <c r="Y120" s="187"/>
-      <c r="Z120" s="188"/>
-      <c r="AA120" s="190"/>
-      <c r="AB120" s="177"/>
-      <c r="AC120" s="177"/>
-      <c r="AD120" s="177"/>
-      <c r="AE120" s="177"/>
-      <c r="AF120" s="177"/>
-      <c r="AG120" s="177"/>
-      <c r="AH120" s="177"/>
-      <c r="AI120" s="177"/>
-      <c r="AJ120" s="177"/>
-      <c r="AK120" s="177"/>
-      <c r="AL120" s="178"/>
-      <c r="AM120" s="165" t="s">
+      <c r="A120" s="151"/>
+      <c r="B120" s="152"/>
+      <c r="C120" s="152"/>
+      <c r="D120" s="152"/>
+      <c r="E120" s="152"/>
+      <c r="F120" s="152"/>
+      <c r="G120" s="152"/>
+      <c r="H120" s="152"/>
+      <c r="I120" s="153"/>
+      <c r="J120" s="151"/>
+      <c r="K120" s="152"/>
+      <c r="L120" s="152"/>
+      <c r="M120" s="152"/>
+      <c r="N120" s="152"/>
+      <c r="O120" s="153"/>
+      <c r="P120" s="151"/>
+      <c r="Q120" s="152"/>
+      <c r="R120" s="152"/>
+      <c r="S120" s="152"/>
+      <c r="T120" s="152"/>
+      <c r="U120" s="153"/>
+      <c r="V120" s="161"/>
+      <c r="W120" s="162"/>
+      <c r="X120" s="162"/>
+      <c r="Y120" s="162"/>
+      <c r="Z120" s="163"/>
+      <c r="AA120" s="165"/>
+      <c r="AB120" s="152"/>
+      <c r="AC120" s="152"/>
+      <c r="AD120" s="152"/>
+      <c r="AE120" s="152"/>
+      <c r="AF120" s="152"/>
+      <c r="AG120" s="152"/>
+      <c r="AH120" s="152"/>
+      <c r="AI120" s="152"/>
+      <c r="AJ120" s="152"/>
+      <c r="AK120" s="152"/>
+      <c r="AL120" s="153"/>
+      <c r="AM120" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AN120" s="166"/>
-      <c r="AO120" s="167"/>
-      <c r="AP120" s="168"/>
-      <c r="AQ120" s="169"/>
-      <c r="AR120" s="165" t="s">
+      <c r="AN120" s="147"/>
+      <c r="AO120" s="143"/>
+      <c r="AP120" s="144"/>
+      <c r="AQ120" s="145"/>
+      <c r="AR120" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="AS120" s="166"/>
-      <c r="AT120" s="170"/>
-      <c r="AU120" s="171"/>
-      <c r="AV120" s="171"/>
-      <c r="AW120" s="172"/>
+      <c r="AS120" s="147"/>
+      <c r="AT120" s="184"/>
+      <c r="AU120" s="185"/>
+      <c r="AV120" s="185"/>
+      <c r="AW120" s="186"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A121" s="179"/>
-      <c r="B121" s="180"/>
-      <c r="C121" s="180"/>
-      <c r="D121" s="180"/>
-      <c r="E121" s="180"/>
-      <c r="F121" s="180"/>
-      <c r="G121" s="180"/>
-      <c r="H121" s="180"/>
-      <c r="I121" s="181"/>
-      <c r="J121" s="179"/>
-      <c r="K121" s="180"/>
-      <c r="L121" s="180"/>
-      <c r="M121" s="180"/>
-      <c r="N121" s="180"/>
-      <c r="O121" s="181"/>
-      <c r="P121" s="179"/>
-      <c r="Q121" s="180"/>
-      <c r="R121" s="180"/>
-      <c r="S121" s="180"/>
-      <c r="T121" s="180"/>
-      <c r="U121" s="181"/>
-      <c r="V121" s="191" t="s">
+      <c r="A121" s="154"/>
+      <c r="B121" s="155"/>
+      <c r="C121" s="155"/>
+      <c r="D121" s="155"/>
+      <c r="E121" s="155"/>
+      <c r="F121" s="155"/>
+      <c r="G121" s="155"/>
+      <c r="H121" s="155"/>
+      <c r="I121" s="156"/>
+      <c r="J121" s="154"/>
+      <c r="K121" s="155"/>
+      <c r="L121" s="155"/>
+      <c r="M121" s="155"/>
+      <c r="N121" s="155"/>
+      <c r="O121" s="156"/>
+      <c r="P121" s="154"/>
+      <c r="Q121" s="155"/>
+      <c r="R121" s="155"/>
+      <c r="S121" s="155"/>
+      <c r="T121" s="155"/>
+      <c r="U121" s="156"/>
+      <c r="V121" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="W121" s="192"/>
-      <c r="X121" s="192"/>
-      <c r="Y121" s="192"/>
-      <c r="Z121" s="193"/>
-      <c r="AA121" s="194" t="s">
+      <c r="W121" s="167"/>
+      <c r="X121" s="167"/>
+      <c r="Y121" s="167"/>
+      <c r="Z121" s="168"/>
+      <c r="AA121" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AB121" s="195"/>
-      <c r="AC121" s="195"/>
-      <c r="AD121" s="195"/>
-      <c r="AE121" s="195"/>
-      <c r="AF121" s="195"/>
-      <c r="AG121" s="196"/>
-      <c r="AH121" s="197" t="s">
+      <c r="AB121" s="170"/>
+      <c r="AC121" s="170"/>
+      <c r="AD121" s="170"/>
+      <c r="AE121" s="170"/>
+      <c r="AF121" s="170"/>
+      <c r="AG121" s="171"/>
+      <c r="AH121" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="AI121" s="198"/>
-      <c r="AJ121" s="198"/>
-      <c r="AK121" s="198"/>
-      <c r="AL121" s="199"/>
-      <c r="AM121" s="194" t="s">
+      <c r="AI121" s="173"/>
+      <c r="AJ121" s="173"/>
+      <c r="AK121" s="173"/>
+      <c r="AL121" s="174"/>
+      <c r="AM121" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AN121" s="195"/>
-      <c r="AO121" s="195"/>
-      <c r="AP121" s="195"/>
-      <c r="AQ121" s="195"/>
-      <c r="AR121" s="195"/>
-      <c r="AS121" s="195"/>
-      <c r="AT121" s="195"/>
-      <c r="AU121" s="195"/>
-      <c r="AV121" s="195"/>
-      <c r="AW121" s="200"/>
+      <c r="AN121" s="170"/>
+      <c r="AO121" s="170"/>
+      <c r="AP121" s="170"/>
+      <c r="AQ121" s="170"/>
+      <c r="AR121" s="170"/>
+      <c r="AS121" s="170"/>
+      <c r="AT121" s="170"/>
+      <c r="AU121" s="170"/>
+      <c r="AV121" s="170"/>
+      <c r="AW121" s="175"/>
     </row>
     <row r="122" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A122" s="3"/>
@@ -8540,48 +8515,48 @@
       <c r="F160" s="131"/>
       <c r="G160" s="131"/>
       <c r="H160" s="132"/>
-      <c r="I160" s="148" t="s">
+      <c r="I160" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="J160" s="149"/>
-      <c r="K160" s="149"/>
-      <c r="L160" s="149"/>
-      <c r="M160" s="149"/>
-      <c r="N160" s="149"/>
-      <c r="O160" s="149"/>
-      <c r="P160" s="149"/>
-      <c r="Q160" s="149"/>
-      <c r="R160" s="149"/>
-      <c r="S160" s="149"/>
-      <c r="T160" s="149"/>
-      <c r="U160" s="149"/>
-      <c r="V160" s="149"/>
-      <c r="W160" s="149"/>
-      <c r="X160" s="149"/>
-      <c r="Y160" s="149"/>
-      <c r="Z160" s="149"/>
-      <c r="AA160" s="149"/>
-      <c r="AB160" s="149"/>
-      <c r="AC160" s="149"/>
-      <c r="AD160" s="149"/>
-      <c r="AE160" s="149"/>
-      <c r="AF160" s="149"/>
-      <c r="AG160" s="149"/>
-      <c r="AH160" s="149"/>
-      <c r="AI160" s="150"/>
-      <c r="AJ160" s="148" t="s">
+      <c r="J160" s="191"/>
+      <c r="K160" s="191"/>
+      <c r="L160" s="191"/>
+      <c r="M160" s="191"/>
+      <c r="N160" s="191"/>
+      <c r="O160" s="191"/>
+      <c r="P160" s="191"/>
+      <c r="Q160" s="191"/>
+      <c r="R160" s="191"/>
+      <c r="S160" s="191"/>
+      <c r="T160" s="191"/>
+      <c r="U160" s="191"/>
+      <c r="V160" s="191"/>
+      <c r="W160" s="191"/>
+      <c r="X160" s="191"/>
+      <c r="Y160" s="191"/>
+      <c r="Z160" s="191"/>
+      <c r="AA160" s="191"/>
+      <c r="AB160" s="191"/>
+      <c r="AC160" s="191"/>
+      <c r="AD160" s="191"/>
+      <c r="AE160" s="191"/>
+      <c r="AF160" s="191"/>
+      <c r="AG160" s="191"/>
+      <c r="AH160" s="191"/>
+      <c r="AI160" s="192"/>
+      <c r="AJ160" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="AK160" s="149"/>
-      <c r="AL160" s="149"/>
-      <c r="AM160" s="149"/>
-      <c r="AN160" s="149"/>
-      <c r="AO160" s="149"/>
-      <c r="AP160" s="149"/>
-      <c r="AQ160" s="149"/>
-      <c r="AR160" s="149"/>
-      <c r="AS160" s="149"/>
-      <c r="AT160" s="150"/>
+      <c r="AK160" s="191"/>
+      <c r="AL160" s="191"/>
+      <c r="AM160" s="191"/>
+      <c r="AN160" s="191"/>
+      <c r="AO160" s="191"/>
+      <c r="AP160" s="191"/>
+      <c r="AQ160" s="191"/>
+      <c r="AR160" s="191"/>
+      <c r="AS160" s="191"/>
+      <c r="AT160" s="192"/>
       <c r="AU160" s="83"/>
       <c r="AV160" s="6"/>
       <c r="AW160" s="7"/>
@@ -8589,12 +8564,12 @@
     <row r="161" spans="1:50" ht="13.5" customHeight="1">
       <c r="A161" s="3"/>
       <c r="D161" s="84"/>
-      <c r="E161" s="151" t="s">
+      <c r="E161" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="F161" s="152"/>
-      <c r="G161" s="152"/>
-      <c r="H161" s="153"/>
+      <c r="F161" s="194"/>
+      <c r="G161" s="194"/>
+      <c r="H161" s="195"/>
       <c r="I161" s="133" t="s">
         <v>85</v>
       </c>
@@ -8644,12 +8619,12 @@
     <row r="162" spans="1:50" ht="13.5" customHeight="1">
       <c r="A162" s="3"/>
       <c r="D162" s="84"/>
-      <c r="E162" s="154" t="s">
+      <c r="E162" s="187" t="s">
         <v>86</v>
       </c>
-      <c r="F162" s="155"/>
-      <c r="G162" s="155"/>
-      <c r="H162" s="156"/>
+      <c r="F162" s="188"/>
+      <c r="G162" s="188"/>
+      <c r="H162" s="189"/>
       <c r="I162" s="137" t="s">
         <v>87</v>
       </c>
@@ -8993,60 +8968,51 @@
       <c r="AW168" s="7"/>
     </row>
     <row r="169" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A169" s="3"/>
-      <c r="D169" s="84"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="83"/>
-      <c r="I169" s="83"/>
-      <c r="J169" s="83"/>
-      <c r="K169" s="83"/>
-      <c r="L169" s="83"/>
-      <c r="M169" s="83"/>
-      <c r="N169" s="83"/>
-      <c r="O169" s="83"/>
-      <c r="P169" s="83"/>
-      <c r="Q169" s="83"/>
-      <c r="R169" s="83"/>
-      <c r="S169" s="83"/>
-      <c r="T169" s="83"/>
-      <c r="U169" s="83"/>
-      <c r="V169" s="83"/>
-      <c r="W169" s="83"/>
-      <c r="X169" s="83"/>
-      <c r="Y169" s="83"/>
-      <c r="Z169" s="83"/>
-      <c r="AA169" s="83"/>
-      <c r="AB169" s="83"/>
-      <c r="AC169" s="83"/>
-      <c r="AD169" s="83"/>
-      <c r="AE169" s="15"/>
-      <c r="AF169" s="83"/>
-      <c r="AG169" s="83"/>
-      <c r="AH169" s="83"/>
-      <c r="AI169" s="83"/>
-      <c r="AJ169" s="142"/>
-      <c r="AK169" s="83"/>
-      <c r="AL169" s="83"/>
-      <c r="AM169" s="83"/>
-      <c r="AN169" s="83"/>
-      <c r="AO169" s="83"/>
-      <c r="AP169" s="83"/>
-      <c r="AQ169" s="83"/>
-      <c r="AR169" s="83"/>
-      <c r="AS169" s="83"/>
-      <c r="AT169" s="83"/>
-      <c r="AU169" s="83"/>
-      <c r="AV169" s="6"/>
-      <c r="AW169" s="7"/>
-    </row>
-    <row r="170" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A170" s="143"/>
-      <c r="B170" s="144"/>
-      <c r="C170" s="145"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="146"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
+      <c r="AB169" s="2"/>
+      <c r="AC169" s="2"/>
+      <c r="AD169" s="2"/>
+      <c r="AE169" s="2"/>
+      <c r="AF169" s="2"/>
+      <c r="AG169" s="2"/>
+      <c r="AH169" s="2"/>
+      <c r="AI169" s="2"/>
+      <c r="AJ169" s="2"/>
+      <c r="AK169" s="2"/>
+      <c r="AL169" s="2"/>
+      <c r="AM169" s="2"/>
+      <c r="AN169" s="2"/>
+      <c r="AO169" s="2"/>
+      <c r="AP169" s="2"/>
+      <c r="AQ169" s="2"/>
+      <c r="AR169" s="2"/>
+      <c r="AS169" s="2"/>
+      <c r="AT169" s="2"/>
+      <c r="AU169" s="2"/>
+      <c r="AX169" s="2"/>
+    </row>
+    <row r="170" spans="1:50" ht="13.5" customHeight="1">
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -9089,110 +9055,55 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
       <c r="AU170" s="2"/>
-      <c r="AV170" s="145"/>
-      <c r="AW170" s="147"/>
-    </row>
-    <row r="171" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-      <c r="AB171" s="2"/>
-      <c r="AC171" s="2"/>
-      <c r="AD171" s="2"/>
-      <c r="AE171" s="2"/>
-      <c r="AF171" s="2"/>
-      <c r="AG171" s="2"/>
-      <c r="AH171" s="2"/>
-      <c r="AI171" s="2"/>
-      <c r="AJ171" s="2"/>
-      <c r="AK171" s="2"/>
-      <c r="AL171" s="2"/>
-      <c r="AM171" s="2"/>
-      <c r="AN171" s="2"/>
-      <c r="AO171" s="2"/>
-      <c r="AP171" s="2"/>
-      <c r="AQ171" s="2"/>
-      <c r="AR171" s="2"/>
-      <c r="AS171" s="2"/>
-      <c r="AT171" s="2"/>
-      <c r="AU171" s="2"/>
-      <c r="AX171" s="2"/>
-    </row>
-    <row r="172" spans="1:50" ht="13.5" customHeight="1">
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-      <c r="AC172" s="2"/>
-      <c r="AD172" s="2"/>
-      <c r="AE172" s="2"/>
-      <c r="AF172" s="2"/>
-      <c r="AG172" s="2"/>
-      <c r="AH172" s="2"/>
-      <c r="AI172" s="2"/>
-      <c r="AJ172" s="2"/>
-      <c r="AK172" s="2"/>
-      <c r="AL172" s="2"/>
-      <c r="AM172" s="2"/>
-      <c r="AN172" s="2"/>
-      <c r="AO172" s="2"/>
-      <c r="AP172" s="2"/>
-      <c r="AQ172" s="2"/>
-      <c r="AR172" s="2"/>
-      <c r="AS172" s="2"/>
-      <c r="AT172" s="2"/>
-      <c r="AU172" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="I160:AI160"/>
+    <mergeCell ref="AJ160:AT160"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="E162:H162"/>
+    <mergeCell ref="AO119:AQ119"/>
+    <mergeCell ref="AR119:AS119"/>
+    <mergeCell ref="AT119:AW119"/>
+    <mergeCell ref="AM120:AN120"/>
+    <mergeCell ref="AO120:AQ120"/>
+    <mergeCell ref="AR120:AS120"/>
+    <mergeCell ref="AT120:AW120"/>
+    <mergeCell ref="A119:I121"/>
+    <mergeCell ref="J119:O121"/>
+    <mergeCell ref="P119:U121"/>
+    <mergeCell ref="V119:Z120"/>
+    <mergeCell ref="AA119:AL120"/>
+    <mergeCell ref="AM119:AN119"/>
+    <mergeCell ref="V121:Z121"/>
+    <mergeCell ref="AA121:AG121"/>
+    <mergeCell ref="AH121:AL121"/>
+    <mergeCell ref="AM121:AW121"/>
+    <mergeCell ref="AO79:AQ79"/>
+    <mergeCell ref="AR79:AS79"/>
+    <mergeCell ref="AT79:AW79"/>
+    <mergeCell ref="AM80:AN80"/>
+    <mergeCell ref="AO80:AQ80"/>
+    <mergeCell ref="AR80:AS80"/>
+    <mergeCell ref="AT80:AW80"/>
+    <mergeCell ref="AM79:AN79"/>
+    <mergeCell ref="AM81:AW81"/>
+    <mergeCell ref="AT42:AW42"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="A79:I81"/>
+    <mergeCell ref="J79:O81"/>
+    <mergeCell ref="P79:U81"/>
+    <mergeCell ref="V79:Z80"/>
+    <mergeCell ref="AA79:AL80"/>
+    <mergeCell ref="V81:Z81"/>
+    <mergeCell ref="AA81:AG81"/>
+    <mergeCell ref="AH81:AL81"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="V43:Z43"/>
     <mergeCell ref="AA43:AG43"/>
     <mergeCell ref="AH43:AL43"/>
     <mergeCell ref="AM43:AW43"/>
@@ -9209,52 +9120,16 @@
     <mergeCell ref="AR41:AS41"/>
     <mergeCell ref="AT41:AW41"/>
     <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="A79:I81"/>
-    <mergeCell ref="J79:O81"/>
-    <mergeCell ref="P79:U81"/>
-    <mergeCell ref="V79:Z80"/>
-    <mergeCell ref="AA79:AL80"/>
-    <mergeCell ref="V81:Z81"/>
-    <mergeCell ref="AA81:AG81"/>
-    <mergeCell ref="AH81:AL81"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="AH121:AL121"/>
-    <mergeCell ref="AM121:AW121"/>
-    <mergeCell ref="AO79:AQ79"/>
-    <mergeCell ref="AR79:AS79"/>
-    <mergeCell ref="AT79:AW79"/>
-    <mergeCell ref="AM80:AN80"/>
-    <mergeCell ref="AO80:AQ80"/>
-    <mergeCell ref="AR80:AS80"/>
-    <mergeCell ref="AT80:AW80"/>
-    <mergeCell ref="AM79:AN79"/>
-    <mergeCell ref="AM81:AW81"/>
-    <mergeCell ref="E162:H162"/>
-    <mergeCell ref="AO119:AQ119"/>
-    <mergeCell ref="AR119:AS119"/>
-    <mergeCell ref="AT119:AW119"/>
-    <mergeCell ref="AM120:AN120"/>
-    <mergeCell ref="AO120:AQ120"/>
-    <mergeCell ref="AR120:AS120"/>
-    <mergeCell ref="AT120:AW120"/>
-    <mergeCell ref="A119:I121"/>
-    <mergeCell ref="J119:O121"/>
-    <mergeCell ref="P119:U121"/>
-    <mergeCell ref="V119:Z120"/>
-    <mergeCell ref="AA119:AL120"/>
-    <mergeCell ref="AM119:AN119"/>
-    <mergeCell ref="V121:Z121"/>
-    <mergeCell ref="AA121:AG121"/>
-    <mergeCell ref="I160:AI160"/>
-    <mergeCell ref="AJ160:AT160"/>
-    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
